--- a/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.46900268447683</v>
+        <v>25.46900268447704</v>
       </c>
       <c r="C2">
-        <v>15.45928379841509</v>
+        <v>15.45928379841505</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.42173374112775</v>
+        <v>13.42173374112778</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.1714497357111</v>
+        <v>34.17144973571119</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.97371660623762</v>
+        <v>15.97371660623767</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.60460850966698</v>
+        <v>23.60460850966704</v>
       </c>
       <c r="C3">
-        <v>14.39288029179946</v>
+        <v>14.39288029179944</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.40793978056066</v>
+        <v>12.40793978056064</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.22718199695304</v>
+        <v>32.22718199695318</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.80583700537826</v>
+        <v>14.80583700537823</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.40739044604691</v>
+        <v>22.40739044604694</v>
       </c>
       <c r="C4">
-        <v>13.70917126921422</v>
+        <v>13.70917126921416</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.78286299488592</v>
+        <v>11.78286299488591</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.02920097815045</v>
+        <v>31.02920097815041</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.05826396906729</v>
+        <v>14.0582639690673</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.90593688558422</v>
+        <v>21.90593688558417</v>
       </c>
       <c r="C5">
-        <v>13.42306712248366</v>
+        <v>13.42306712248373</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.54961969897422</v>
+        <v>11.5496196989742</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>30.54001750217011</v>
+        <v>30.54001750217009</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.82184038286422</v>
+        <v>21.82184038286431</v>
       </c>
       <c r="C6">
-        <v>13.37510190809893</v>
+        <v>13.37510190809891</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>11.51067739379642</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
         <v>30.45873320379896</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.6932869680891</v>
+        <v>13.69328696808908</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.40068312155983</v>
+        <v>22.4006831215598</v>
       </c>
       <c r="C7">
-        <v>13.70534334270768</v>
+        <v>13.70534334270737</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.77973165864883</v>
+        <v>11.77973165864882</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>31.02260753279898</v>
+        <v>31.02260753279899</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.05408084175879</v>
+        <v>14.05408084175882</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.8368070997191</v>
+        <v>24.83680709971916</v>
       </c>
       <c r="C8">
-        <v>15.09745585705048</v>
+        <v>15.0974558570505</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.07731345428589</v>
+        <v>13.07731345428593</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.50192448341998</v>
+        <v>33.50192448342001</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.57718427396241</v>
+        <v>15.57718427396246</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.47816312088229</v>
+        <v>15.47816312088232</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>38.33671852585955</v>
+        <v>38.33671852585961</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.33631124539887</v>
+        <v>18.33631124539891</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.22589149752326</v>
+        <v>32.22589149752331</v>
       </c>
       <c r="C10">
-        <v>19.3404170055286</v>
+        <v>19.34041700552853</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.14747443712473</v>
+        <v>17.1474744371247</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>41.89526500853176</v>
+        <v>41.89526500853189</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.24797819668125</v>
+        <v>20.24797819668119</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.55779723710804</v>
+        <v>33.5577972371081</v>
       </c>
       <c r="C11">
-        <v>20.10863848137107</v>
+        <v>20.10863848137121</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -766,10 +766,10 @@
         <v>17.89219154332871</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>43.59716620783445</v>
+        <v>43.59716620783473</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.05778811155052</v>
+        <v>34.05778811155061</v>
       </c>
       <c r="C12">
-        <v>20.39732646692044</v>
+        <v>20.3973264669206</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.17269670839291</v>
+        <v>18.17269670839286</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>44.27515474769341</v>
+        <v>44.27515474769335</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.95028424710958</v>
+        <v>33.95028424710961</v>
       </c>
       <c r="C13">
-        <v>20.3352408813258</v>
+        <v>20.33524088132593</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.11234074445481</v>
+        <v>18.11234074445483</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>44.12910525103872</v>
+        <v>44.12910525103904</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.35044134785384</v>
+        <v>21.35044134785388</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.59901359798427</v>
+        <v>33.59901359798416</v>
       </c>
       <c r="C14">
-        <v>20.13242988176584</v>
+        <v>20.13242988176582</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>17.91529507744628</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>43.6529325453538</v>
+        <v>43.65293254535354</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.1254424670409</v>
+        <v>21.12544246704085</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.38331061170311</v>
+        <v>33.38331061170295</v>
       </c>
       <c r="C15">
-        <v>20.00793175537966</v>
+        <v>20.00793175537957</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.79442327547194</v>
+        <v>17.79442327547183</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>43.3613295178091</v>
+        <v>43.3613295178089</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.98738635187647</v>
+        <v>20.9873863518764</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.13818321808278</v>
+        <v>32.13818321808269</v>
       </c>
       <c r="C16">
-        <v>19.28986799027266</v>
+        <v>19.28986799027262</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.09855939357536</v>
+        <v>17.0985593935752</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.78905905927007</v>
+        <v>41.78905905926983</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.19203925569448</v>
+        <v>20.19203925569438</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.36552921840562</v>
+        <v>31.36552921840575</v>
       </c>
       <c r="C17">
         <v>18.84476826966574</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.66830809732565</v>
+        <v>16.66830809732568</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>40.85966637676793</v>
+        <v>40.85966637676788</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.69980506553977</v>
+        <v>19.69980506553983</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.91760212465611</v>
+        <v>30.91760212465583</v>
       </c>
       <c r="C18">
-        <v>18.5868981251042</v>
+        <v>18.58689812510418</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.41941646383444</v>
+        <v>16.41941646383442</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>40.32606946012153</v>
+        <v>40.32606946012092</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.4148920467446</v>
+        <v>19.41489204674453</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.76531292446106</v>
+        <v>30.76531292446099</v>
       </c>
       <c r="C19">
-        <v>18.4992528991654</v>
+        <v>18.49925289916552</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.33488520668275</v>
+        <v>16.33488520668269</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>36.1517249415763</v>
       </c>
       <c r="G19">
-        <v>40.14553780336679</v>
+        <v>40.14553780336658</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.31809915355941</v>
+        <v>19.3180991535594</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.44813755857467</v>
+        <v>31.4481375585747</v>
       </c>
       <c r="C20">
-        <v>18.89233875510921</v>
+        <v>18.89233875510917</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.71425230295556</v>
+        <v>16.7142523029556</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>40.95849440545179</v>
+        <v>40.95849440545138</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.70230086989686</v>
+        <v>33.7023008698968</v>
       </c>
       <c r="C21">
-        <v>20.19205559165029</v>
+        <v>20.19205559165026</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.97320750590868</v>
+        <v>17.97320750590871</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.79277916089925</v>
+        <v>43.79277916089882</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.19157825128413</v>
+        <v>21.19157825128414</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.15060019669847</v>
+        <v>35.15060019669846</v>
       </c>
       <c r="C22">
-        <v>21.02890485534384</v>
+        <v>21.02890485534389</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.7876260681162</v>
+        <v>18.78762606811619</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>45.76822589328201</v>
+        <v>45.76822589328191</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.12095432838711</v>
+        <v>22.12095432838709</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.37954733107609</v>
+        <v>34.3795473310761</v>
       </c>
       <c r="C23">
-        <v>20.58319624338567</v>
+        <v>20.58319624338575</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.35348761221589</v>
+        <v>18.35348761221585</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>44.71317318123268</v>
+        <v>44.71317318123246</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.62569543428526</v>
+        <v>21.62569543428524</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.41080197453571</v>
+        <v>31.41080197453552</v>
       </c>
       <c r="C24">
-        <v>18.87083833539825</v>
+        <v>18.87083833539824</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.69348575099228</v>
+        <v>16.69348575099225</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
-        <v>40.91381208596029</v>
+        <v>40.91381208596006</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.7286198441841</v>
+        <v>19.72861984418407</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.07175769906167</v>
+        <v>28.0717576990617</v>
       </c>
       <c r="C25">
-        <v>16.95126270614783</v>
+        <v>16.95126270614795</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.84700061067607</v>
+        <v>14.8470006106761</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459127055</v>
       </c>
       <c r="G25">
-        <v>37.03008783618495</v>
+        <v>37.03008783618476</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.61208051137045</v>
+        <v>17.61208051137055</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.46900268447704</v>
+        <v>25.46900268447683</v>
       </c>
       <c r="C2">
-        <v>15.45928379841505</v>
+        <v>15.45928379841509</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.42173374112778</v>
+        <v>13.42173374112775</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.17144973571119</v>
+        <v>34.1714497357111</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.97371660623767</v>
+        <v>15.97371660623762</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.60460850966704</v>
+        <v>23.60460850966698</v>
       </c>
       <c r="C3">
-        <v>14.39288029179944</v>
+        <v>14.39288029179946</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.40793978056064</v>
+        <v>12.40793978056066</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.22718199695318</v>
+        <v>32.22718199695304</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.80583700537823</v>
+        <v>14.80583700537826</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.40739044604694</v>
+        <v>22.40739044604691</v>
       </c>
       <c r="C4">
-        <v>13.70917126921416</v>
+        <v>13.70917126921422</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.78286299488591</v>
+        <v>11.78286299488592</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.02920097815041</v>
+        <v>31.02920097815045</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.0582639690673</v>
+        <v>14.05826396906729</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.90593688558417</v>
+        <v>21.90593688558422</v>
       </c>
       <c r="C5">
-        <v>13.42306712248373</v>
+        <v>13.42306712248366</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.5496196989742</v>
+        <v>11.54961969897422</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>30.54001750217009</v>
+        <v>30.54001750217011</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.82184038286431</v>
+        <v>21.82184038286422</v>
       </c>
       <c r="C6">
-        <v>13.37510190809891</v>
+        <v>13.37510190809893</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>11.51067739379642</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
         <v>30.45873320379896</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.69328696808908</v>
+        <v>13.6932869680891</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.4006831215598</v>
+        <v>22.40068312155983</v>
       </c>
       <c r="C7">
-        <v>13.70534334270737</v>
+        <v>13.70534334270768</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.77973165864882</v>
+        <v>11.77973165864883</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.02260753279899</v>
+        <v>31.02260753279898</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.05408084175882</v>
+        <v>14.05408084175879</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.83680709971916</v>
+        <v>24.8368070997191</v>
       </c>
       <c r="C8">
-        <v>15.0974558570505</v>
+        <v>15.09745585705048</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.07731345428593</v>
+        <v>13.07731345428589</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.50192448342001</v>
+        <v>33.50192448341998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.57718427396246</v>
+        <v>15.57718427396241</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.47816312088232</v>
+        <v>15.47816312088229</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.33671852585961</v>
+        <v>38.33671852585955</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.33631124539891</v>
+        <v>18.33631124539887</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.22589149752331</v>
+        <v>32.22589149752326</v>
       </c>
       <c r="C10">
-        <v>19.34041700552853</v>
+        <v>19.3404170055286</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.1474744371247</v>
+        <v>17.14747443712473</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.89526500853189</v>
+        <v>41.89526500853176</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.24797819668119</v>
+        <v>20.24797819668125</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.5577972371081</v>
+        <v>33.55779723710804</v>
       </c>
       <c r="C11">
-        <v>20.10863848137121</v>
+        <v>20.10863848137107</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -766,10 +766,10 @@
         <v>17.89219154332871</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>43.59716620783473</v>
+        <v>43.59716620783445</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.05778811155061</v>
+        <v>34.05778811155052</v>
       </c>
       <c r="C12">
-        <v>20.3973264669206</v>
+        <v>20.39732646692044</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.17269670839286</v>
+        <v>18.17269670839291</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>44.27515474769335</v>
+        <v>44.27515474769341</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.95028424710961</v>
+        <v>33.95028424710958</v>
       </c>
       <c r="C13">
-        <v>20.33524088132593</v>
+        <v>20.3352408813258</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.11234074445483</v>
+        <v>18.11234074445481</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>44.12910525103904</v>
+        <v>44.12910525103872</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.35044134785388</v>
+        <v>21.35044134785384</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.59901359798416</v>
+        <v>33.59901359798427</v>
       </c>
       <c r="C14">
-        <v>20.13242988176582</v>
+        <v>20.13242988176584</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>17.91529507744628</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>43.65293254535354</v>
+        <v>43.6529325453538</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.12544246704085</v>
+        <v>21.1254424670409</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.38331061170295</v>
+        <v>33.38331061170311</v>
       </c>
       <c r="C15">
-        <v>20.00793175537957</v>
+        <v>20.00793175537966</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.79442327547183</v>
+        <v>17.79442327547194</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>43.3613295178089</v>
+        <v>43.3613295178091</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.9873863518764</v>
+        <v>20.98738635187647</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.13818321808269</v>
+        <v>32.13818321808278</v>
       </c>
       <c r="C16">
-        <v>19.28986799027262</v>
+        <v>19.28986799027266</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.0985593935752</v>
+        <v>17.09855939357536</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.78905905926983</v>
+        <v>41.78905905927007</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.19203925569438</v>
+        <v>20.19203925569448</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.36552921840575</v>
+        <v>31.36552921840562</v>
       </c>
       <c r="C17">
         <v>18.84476826966574</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.66830809732568</v>
+        <v>16.66830809732565</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.85966637676788</v>
+        <v>40.85966637676793</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.69980506553983</v>
+        <v>19.69980506553977</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.91760212465583</v>
+        <v>30.91760212465611</v>
       </c>
       <c r="C18">
-        <v>18.58689812510418</v>
+        <v>18.5868981251042</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.41941646383442</v>
+        <v>16.41941646383444</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.32606946012092</v>
+        <v>40.32606946012153</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.41489204674453</v>
+        <v>19.4148920467446</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.76531292446099</v>
+        <v>30.76531292446106</v>
       </c>
       <c r="C19">
-        <v>18.49925289916552</v>
+        <v>18.4992528991654</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.33488520668269</v>
+        <v>16.33488520668275</v>
       </c>
       <c r="F19">
-        <v>36.1517249415763</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>40.14553780336658</v>
+        <v>40.14553780336679</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.3180991535594</v>
+        <v>19.31809915355941</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.4481375585747</v>
+        <v>31.44813755857467</v>
       </c>
       <c r="C20">
-        <v>18.89233875510917</v>
+        <v>18.89233875510921</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.7142523029556</v>
+        <v>16.71425230295556</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>40.95849440545138</v>
+        <v>40.95849440545179</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.7023008698968</v>
+        <v>33.70230086989686</v>
       </c>
       <c r="C21">
-        <v>20.19205559165026</v>
+        <v>20.19205559165029</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.97320750590871</v>
+        <v>17.97320750590868</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>43.79277916089882</v>
+        <v>43.79277916089925</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.19157825128414</v>
+        <v>21.19157825128413</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.15060019669846</v>
+        <v>35.15060019669847</v>
       </c>
       <c r="C22">
-        <v>21.02890485534389</v>
+        <v>21.02890485534384</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.78762606811619</v>
+        <v>18.7876260681162</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>45.76822589328191</v>
+        <v>45.76822589328201</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.12095432838709</v>
+        <v>22.12095432838711</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.3795473310761</v>
+        <v>34.37954733107609</v>
       </c>
       <c r="C23">
-        <v>20.58319624338575</v>
+        <v>20.58319624338567</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.35348761221585</v>
+        <v>18.35348761221589</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>44.71317318123246</v>
+        <v>44.71317318123268</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.62569543428524</v>
+        <v>21.62569543428526</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.41080197453552</v>
+        <v>31.41080197453571</v>
       </c>
       <c r="C24">
-        <v>18.87083833539824</v>
+        <v>18.87083833539825</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.69348575099225</v>
+        <v>16.69348575099228</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>40.91381208596006</v>
+        <v>40.91381208596029</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.72861984418407</v>
+        <v>19.7286198441841</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.0717576990617</v>
+        <v>28.07175769906167</v>
       </c>
       <c r="C25">
-        <v>16.95126270614795</v>
+        <v>16.95126270614783</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.8470006106761</v>
+        <v>14.84700061067607</v>
       </c>
       <c r="F25">
-        <v>33.19272459127055</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>37.03008783618476</v>
+        <v>37.03008783618495</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.61208051137055</v>
+        <v>17.61208051137045</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.46900268447683</v>
+        <v>25.46713642588837</v>
       </c>
       <c r="C2">
-        <v>15.45928379841509</v>
+        <v>15.45700720268695</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.42173374112775</v>
+        <v>13.42145131694195</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.1714497357111</v>
+        <v>33.44096110142984</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>34.16864574096755</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.97371660623762</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15.97292497916419</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.60460850966698</v>
+        <v>23.60329312125794</v>
       </c>
       <c r="C3">
-        <v>14.39288029179946</v>
+        <v>14.39118965437251</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.40793978056066</v>
+        <v>12.40775470092003</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.22718199695304</v>
+        <v>31.27033280908659</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>32.22573823534287</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.80583700537826</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>14.80528108471612</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.40739044604691</v>
+        <v>22.40638801626231</v>
       </c>
       <c r="C4">
-        <v>13.70917126921422</v>
+        <v>13.70783340568902</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.78286299488592</v>
+        <v>11.78259576241106</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.02920097815045</v>
+        <v>29.91740766819822</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>31.02876024767648</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.05826396906729</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>14.05784039849789</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.90593688558422</v>
+        <v>21.90505653544298</v>
       </c>
       <c r="C5">
-        <v>13.42306712248366</v>
+        <v>13.42187217153087</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.54961969897422</v>
+        <v>11.54938209343534</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>30.54001750217011</v>
+        <v>29.3610016877856</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>30.54002948042411</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.7456787793196</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>13.74530660008318</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.82184038286422</v>
+        <v>21.82097999773739</v>
       </c>
       <c r="C6">
-        <v>13.37510190809893</v>
+        <v>13.37393066198619</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.51067739379642</v>
+        <v>11.51044466587484</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>30.45873320379896</v>
+        <v>29.26830712302539</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>30.4588230560399</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.6932869680891</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>13.69292318376887</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.40068312155983</v>
+        <v>22.39968235919609</v>
       </c>
       <c r="C7">
-        <v>13.70534334270768</v>
+        <v>13.70400740881926</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.77973165864883</v>
+        <v>11.77946482880914</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.02260753279898</v>
+        <v>29.90992423517795</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>31.02217272754999</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.05408084175879</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>14.05365797387708</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.8368070997191</v>
+        <v>24.83513662782431</v>
       </c>
       <c r="C8">
-        <v>15.09745585705048</v>
+        <v>15.09538333265388</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.07731345428589</v>
+        <v>13.07706677604901</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.50192448341998</v>
+        <v>32.69665055840173</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>33.49955579075269</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.57718427396241</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>15.57647685972662</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.21735320470027</v>
+        <v>29.21411709114107</v>
       </c>
       <c r="C9">
-        <v>17.60913698341271</v>
+        <v>17.6055173590032</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.47816312088229</v>
+        <v>15.47759952135924</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.33671852585955</v>
+        <v>38.01165471109764</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>38.33179924622434</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.33631124539887</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>18.33491587133086</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.22589149752326</v>
+        <v>32.22125665662997</v>
       </c>
       <c r="C10">
-        <v>19.3404170055286</v>
+        <v>19.33551888745227</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.14747443712473</v>
+        <v>17.14657598641889</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.89526500853176</v>
+        <v>41.85440566914577</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>41.8890874324081</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.24797819668125</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>20.24594053967831</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.55779723710804</v>
+        <v>33.55244208523266</v>
       </c>
       <c r="C11">
-        <v>20.10863848137107</v>
+        <v>20.10310438530125</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.89219154332871</v>
+        <v>17.89110454189932</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>43.59716620783445</v>
+        <v>43.60023083215657</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>43.60023083215753</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.09905650006752</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>21.09667854197411</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.05778811155052</v>
+        <v>34.05214463584321</v>
       </c>
       <c r="C12">
-        <v>20.39732646692044</v>
+        <v>20.39154108021276</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.17269670839291</v>
+        <v>18.17153142277489</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>44.27515474769341</v>
+        <v>44.27022303336845</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>44.26232387901512</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.41934446307948</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>21.41682856449962</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.95028424710958</v>
+        <v>33.94470362570035</v>
       </c>
       <c r="C13">
-        <v>20.3352408813258</v>
+        <v>20.32951012977862</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.11234074445481</v>
+        <v>18.11119265756778</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>44.12910525103872</v>
+        <v>44.12418068919762</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>44.11966149173362</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.35044134785384</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>21.34795560257346</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.59901359798427</v>
+        <v>33.59363506096392</v>
       </c>
       <c r="C14">
-        <v>20.13242988176584</v>
+        <v>20.12687533923823</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.91529507744628</v>
+        <v>17.91420178505681</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>43.6529325453538</v>
+        <v>43.65467300312652</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>43.65467300312648</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.1254424670409</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>21.12305335716274</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.38331061170311</v>
+        <v>33.37805371040476</v>
       </c>
       <c r="C15">
-        <v>20.00793175537966</v>
+        <v>20.00248369306746</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.79442327547194</v>
+        <v>17.79336259080013</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>43.3613295178091</v>
+        <v>43.37002789958166</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>43.37002789958163</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.98738635187647</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>20.98505517662831</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.13818321808278</v>
+        <v>32.1335934857735</v>
       </c>
       <c r="C16">
-        <v>19.28986799027266</v>
+        <v>19.28501013070872</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.09855939357536</v>
+        <v>17.09767240473899</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.78905905927007</v>
+        <v>41.74037039244002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>41.78291424310553</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.19203925569448</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>20.19002270003522</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.36552921840562</v>
+        <v>31.36132507853326</v>
       </c>
       <c r="C17">
-        <v>18.84476826966574</v>
+        <v>18.84025688414606</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.66830809732565</v>
+        <v>16.66751735184339</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.85966637676793</v>
+        <v>40.74087231582255</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>40.85381893334103</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.69980506553977</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>19.6979678526925</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.91760212465611</v>
+        <v>30.9136121159054</v>
       </c>
       <c r="C18">
-        <v>18.5868981251042</v>
+        <v>18.58258109578778</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.41941646383444</v>
+        <v>16.41867779092555</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.32606946012153</v>
+        <v>40.16567657397292</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>40.3204023430297</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.4148920467446</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>19.41315361807269</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.76531292446106</v>
+        <v>30.7613941929874</v>
       </c>
       <c r="C19">
-        <v>18.4992528991654</v>
+        <v>18.49500089880145</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.33488520668275</v>
+        <v>16.33416364348042</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>40.14553780336679</v>
+        <v>39.97083753982099</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>40.13993344428767</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.31809915355941</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>19.31639347672034</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.44813755857467</v>
+        <v>31.44389318566401</v>
       </c>
       <c r="C20">
-        <v>18.89233875510921</v>
+        <v>18.88779101361345</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.71425230295556</v>
+        <v>16.71345166257798</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>40.95849440545179</v>
+        <v>40.8472944025151</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>40.95261437132415</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.75238536549641</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>19.75052952706668</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.70230086989686</v>
+        <v>33.69686343091432</v>
       </c>
       <c r="C21">
-        <v>20.19205559165029</v>
+        <v>20.18644960083487</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.97320750590868</v>
+        <v>17.9720983219688</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>43.79277916089925</v>
+        <v>43.79121230084431</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>43.79121230090285</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.19157825128413</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>21.18916102411725</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.15060019669847</v>
+        <v>35.14428989411138</v>
       </c>
       <c r="C22">
-        <v>21.02890485534384</v>
+        <v>21.02254445799937</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.7876260681162</v>
+        <v>18.78627388801023</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>45.76822589328201</v>
+        <v>45.76321767382915</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>45.72187956131616</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.12095432838711</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>22.11811575703581</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.37954733107609</v>
+        <v>34.37371285367291</v>
       </c>
       <c r="C23">
-        <v>20.58319624338567</v>
+        <v>20.57724530999154</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.35348761221589</v>
+        <v>18.35226961520613</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>44.71317318123268</v>
+        <v>44.70821977173888</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>44.69030290158465</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.62569543428526</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>21.62308762669668</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.41080197453571</v>
+        <v>31.40657581425407</v>
       </c>
       <c r="C24">
-        <v>18.87083833539825</v>
+        <v>18.86630704531453</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.69348575099228</v>
+        <v>16.69268959412945</v>
       </c>
       <c r="F24">
         <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>40.91381208596029</v>
+        <v>40.79918284972236</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>40.90794675663714</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.7286198441841</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>19.7267724396904</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.07175769906167</v>
+        <v>28.06898051080221</v>
       </c>
       <c r="C25">
-        <v>16.95126270614783</v>
+        <v>16.94807986869149</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.84700061067607</v>
+        <v>14.8465368613893</v>
       </c>
       <c r="F25">
         <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>37.03008783618495</v>
+        <v>36.58763279748005</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>37.02573913011405</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.61208051137045</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>17.61089025742904</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.46713642588837</v>
+        <v>28.78341083630077</v>
       </c>
       <c r="C2">
-        <v>15.45700720268695</v>
+        <v>21.96202827771166</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.42145131694195</v>
+        <v>12.14061726569943</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>47.20302623045653</v>
       </c>
       <c r="G2">
-        <v>33.44096110142984</v>
+        <v>2.046010909566872</v>
       </c>
       <c r="H2">
-        <v>34.16864574096755</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.124114793604568</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.97292497916419</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>12.07595941269889</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.60329312125794</v>
+        <v>26.66241438192594</v>
       </c>
       <c r="C3">
-        <v>14.39118965437251</v>
+        <v>20.32850108390213</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.40775470092003</v>
+        <v>11.5206184528062</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>44.60569462353254</v>
       </c>
       <c r="G3">
-        <v>31.27033280908659</v>
+        <v>2.060819324621232</v>
       </c>
       <c r="H3">
-        <v>32.22573823534287</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.049882896725019</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.80528108471612</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>12.36262992783896</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.40638801626231</v>
+        <v>25.30400054888292</v>
       </c>
       <c r="C4">
-        <v>13.70783340568902</v>
+        <v>19.28227617595047</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.78259576241106</v>
+        <v>11.13021915811327</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>43.00064359467399</v>
       </c>
       <c r="G4">
-        <v>29.91740766819822</v>
+        <v>2.070032270109234</v>
       </c>
       <c r="H4">
-        <v>31.02876024767648</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.010813177503367</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.05784039849789</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>12.54247292742143</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.90505653544298</v>
+        <v>24.73596329708683</v>
       </c>
       <c r="C5">
-        <v>13.42187217153087</v>
+        <v>18.84472337867135</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.54938209343534</v>
+        <v>10.96884065797945</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>42.34429489768242</v>
       </c>
       <c r="G5">
-        <v>29.3610016877856</v>
+        <v>2.073822866001711</v>
       </c>
       <c r="H5">
-        <v>30.54002948042411</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.996426611103606</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.74530660008318</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>12.61672272803654</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.82097999773739</v>
+        <v>24.64075759340431</v>
       </c>
       <c r="C6">
-        <v>13.37393066198619</v>
+        <v>18.77138209878139</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.51044466587484</v>
+        <v>10.94191105210837</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>42.23518383789494</v>
       </c>
       <c r="G6">
-        <v>29.26830712302539</v>
+        <v>2.074454642341335</v>
       </c>
       <c r="H6">
-        <v>30.4588230560399</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.994127536732404</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.69292318376887</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>12.62911011019771</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.39968235919609</v>
+        <v>25.29639883451546</v>
       </c>
       <c r="C7">
-        <v>13.70400740881926</v>
+        <v>19.27642098054285</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.77946482880914</v>
+        <v>11.12805177835603</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>42.99180052087802</v>
       </c>
       <c r="G7">
-        <v>29.90992423517795</v>
+        <v>2.070083237263496</v>
       </c>
       <c r="H7">
-        <v>31.02217272754999</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.010613072504397</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.05365797387708</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>12.54347038437225</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.83513662782431</v>
+        <v>28.06350008662608</v>
       </c>
       <c r="C8">
-        <v>15.09538333265388</v>
+        <v>21.40754501741938</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.07706677604901</v>
+        <v>11.92893969696243</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>46.3097221218385</v>
       </c>
       <c r="G8">
-        <v>32.69665055840173</v>
+        <v>2.051095626370529</v>
       </c>
       <c r="H8">
-        <v>33.49955579075269</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.09710548816401</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.57647685972662</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>12.17400700281001</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.21411709114107</v>
+        <v>33.06438515163626</v>
       </c>
       <c r="C9">
-        <v>17.6055173590032</v>
+        <v>25.26131244379691</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.47759952135924</v>
+        <v>13.41761203987047</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>52.73231074539773</v>
       </c>
       <c r="G9">
-        <v>38.01165471109764</v>
+        <v>2.014508770219473</v>
       </c>
       <c r="H9">
-        <v>38.33179924622434</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.323305179877413</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>18.33491587133086</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>11.48034631476879</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.22125665662997</v>
+        <v>36.51283588611175</v>
       </c>
       <c r="C10">
-        <v>19.33551888745227</v>
+        <v>27.92351280790563</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.14657598641889</v>
+        <v>14.45801468879739</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>57.41502875675951</v>
       </c>
       <c r="G10">
-        <v>41.85440566914577</v>
+        <v>1.987515597068819</v>
       </c>
       <c r="H10">
-        <v>41.8890874324081</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.531596128005959</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.24594053967831</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>10.9914067227451</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.55244208523266</v>
+        <v>38.04215039076932</v>
       </c>
       <c r="C11">
-        <v>20.10310438530125</v>
+        <v>29.10601365703872</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.89110454189932</v>
+        <v>14.9198662094514</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>59.5465280498796</v>
       </c>
       <c r="G11">
-        <v>43.60023083215657</v>
+        <v>1.975069549570199</v>
       </c>
       <c r="H11">
-        <v>43.60023083215753</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.637474708766847</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.09667854197411</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>10.77441094497952</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.05214463584321</v>
+        <v>38.61658822516805</v>
       </c>
       <c r="C12">
-        <v>20.39154108021276</v>
+        <v>29.55053250505593</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.17153142277489</v>
+        <v>15.09318078584223</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>60.37523425715795</v>
       </c>
       <c r="G12">
-        <v>44.27022303336845</v>
+        <v>1.970317844579923</v>
       </c>
       <c r="H12">
-        <v>44.26232387901512</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.679366211622573</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.41682856449962</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>10.69315673427319</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.94470362570035</v>
+        <v>38.49306304058853</v>
       </c>
       <c r="C13">
-        <v>20.32951012977862</v>
+        <v>29.45492763296348</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.11119265756778</v>
+        <v>15.05592304215923</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>60.19125280224549</v>
       </c>
       <c r="G13">
-        <v>44.12418068919762</v>
+        <v>1.971343194995178</v>
       </c>
       <c r="H13">
-        <v>44.11966149173362</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.67026064044499</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.34795560257346</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>10.71061264321542</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.59363506096392</v>
+        <v>38.08949717211021</v>
       </c>
       <c r="C14">
-        <v>20.12687533923823</v>
+        <v>29.14264460041543</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.91420178505681</v>
+        <v>14.93415599537934</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>59.61301015654759</v>
       </c>
       <c r="G14">
-        <v>43.65467300312652</v>
+        <v>1.974679493554029</v>
       </c>
       <c r="H14">
-        <v>43.65467300312648</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.640883860683047</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.12305335716274</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>10.76770672555734</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.37805371040476</v>
+        <v>37.84172457324916</v>
       </c>
       <c r="C15">
-        <v>20.00248369306746</v>
+        <v>28.9509642574306</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.79336259080013</v>
+        <v>14.85936734333564</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>59.26541968498964</v>
       </c>
       <c r="G15">
-        <v>43.37002789958166</v>
+        <v>1.976717551681224</v>
       </c>
       <c r="H15">
-        <v>43.37002789958163</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.623130308946896</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.98505517662831</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>10.80280305762232</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.1335934857735</v>
+        <v>36.4121785570123</v>
       </c>
       <c r="C16">
-        <v>19.28501013070872</v>
+        <v>27.84572696734018</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.09767240473899</v>
+        <v>14.42760607334782</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>57.27584884625869</v>
       </c>
       <c r="G16">
-        <v>41.74037039244002</v>
+        <v>1.988324431258641</v>
       </c>
       <c r="H16">
-        <v>41.78291424310553</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.524916715593878</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.19002270003522</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>11.00570751484393</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.36132507853326</v>
+        <v>35.52574834542116</v>
       </c>
       <c r="C17">
-        <v>18.84025688414606</v>
+        <v>27.16093352877885</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.66751735184339</v>
+        <v>14.15983819860003</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>56.05636714475103</v>
       </c>
       <c r="G17">
-        <v>40.74087231582255</v>
+        <v>1.995392611908211</v>
       </c>
       <c r="H17">
-        <v>40.85381893334103</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.467645695662346</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>19.6979678526925</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>11.13165274971948</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.9136121159054</v>
+        <v>35.01211910106086</v>
       </c>
       <c r="C18">
-        <v>18.58258109578778</v>
+        <v>26.76431284957789</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.41867779092555</v>
+        <v>14.00474240338752</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>55.35498370466873</v>
       </c>
       <c r="G18">
-        <v>40.16567657397292</v>
+        <v>1.999443380325908</v>
       </c>
       <c r="H18">
-        <v>40.3204023430297</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.435738572516605</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>19.41315361807269</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>11.20459271445226</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.7613941929874</v>
+        <v>34.83753723814561</v>
       </c>
       <c r="C19">
-        <v>18.49500089880145</v>
+        <v>26.6295294409046</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.33416364348042</v>
+        <v>13.95204242531269</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>55.11748275641369</v>
       </c>
       <c r="G19">
-        <v>39.97083753982099</v>
+        <v>2.000812784032396</v>
       </c>
       <c r="H19">
-        <v>40.13993344428767</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.425107421212943</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>19.31639347672034</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>11.22937145938221</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.44389318566401</v>
+        <v>35.6204948423449</v>
       </c>
       <c r="C20">
-        <v>18.88779101361345</v>
+        <v>27.23410957604542</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.71345166257798</v>
+        <v>14.18845428607892</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>56.1861726056297</v>
       </c>
       <c r="G20">
-        <v>40.8472944025151</v>
+        <v>1.994641806655494</v>
       </c>
       <c r="H20">
-        <v>40.95261437132415</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.473633991686609</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>19.75052952706668</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>11.11819314532319</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.69686343091432</v>
+        <v>38.2081524136439</v>
       </c>
       <c r="C21">
-        <v>20.18644960083487</v>
+        <v>29.23445089421048</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.9720983219688</v>
+        <v>14.96996401113256</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>59.77974641247322</v>
       </c>
       <c r="G21">
-        <v>43.79121230084431</v>
+        <v>1.973700722964793</v>
       </c>
       <c r="H21">
-        <v>43.79121230090285</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.649461992235532</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.18916102411725</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>10.75091051882427</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.14428989411138</v>
+        <v>39.8726691813373</v>
       </c>
       <c r="C22">
-        <v>21.02254445799937</v>
+        <v>30.52325774390668</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.78627388801023</v>
+        <v>15.47159046963445</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>62.25442968729892</v>
       </c>
       <c r="G22">
-        <v>45.76321767382915</v>
+        <v>1.959780034981707</v>
       </c>
       <c r="H22">
-        <v>45.72187956131616</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.77497350103836</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.11811575703581</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>10.51632875206489</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.37371285367291</v>
+        <v>38.98634414954502</v>
       </c>
       <c r="C23">
-        <v>20.57724530999154</v>
+        <v>29.83676990253386</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.35226961520613</v>
+        <v>15.2046644797459</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>60.92684943950316</v>
       </c>
       <c r="G23">
-        <v>44.70821977173888</v>
+        <v>1.967236904571598</v>
       </c>
       <c r="H23">
-        <v>44.69030290158465</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.706940640654214</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.62308762669668</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>10.64096783962832</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.40657581425407</v>
+        <v>35.57767250905501</v>
       </c>
       <c r="C24">
-        <v>18.86630704531453</v>
+        <v>27.20103585298439</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.69268959412945</v>
+        <v>14.17552054696077</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>56.12748853526053</v>
       </c>
       <c r="G24">
-        <v>40.79918284972236</v>
+        <v>1.994981284582153</v>
       </c>
       <c r="H24">
-        <v>40.90794675663714</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.470923524314966</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>19.7267724396904</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>11.12427658374367</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.06898051080221</v>
+        <v>31.75394135288719</v>
       </c>
       <c r="C25">
-        <v>16.94807986869149</v>
+        <v>24.25086895583616</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.8465368613893</v>
+        <v>13.02415460758484</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>51.00319118507289</v>
       </c>
       <c r="G25">
-        <v>36.58763279748005</v>
+        <v>2.024384627839906</v>
       </c>
       <c r="H25">
-        <v>37.02573913011405</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.255318898556782</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>17.61089025742904</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.66457758356943</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.78341083630077</v>
+        <v>24.92178101947466</v>
       </c>
       <c r="C2">
-        <v>21.96202827771166</v>
+        <v>18.28021192588423</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.14061726569943</v>
+        <v>25.08472142053754</v>
       </c>
       <c r="F2">
-        <v>47.20302623045653</v>
+        <v>34.0775719951256</v>
       </c>
       <c r="G2">
-        <v>2.046010909566872</v>
+        <v>2.059598496728832</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.124114793604568</v>
+        <v>4.019051645705537</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.07595941269889</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.44516557515738</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.66241438192594</v>
+        <v>23.27049391500505</v>
       </c>
       <c r="C3">
-        <v>20.32850108390213</v>
+        <v>17.14881661523138</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.5206184528062</v>
+        <v>23.62745611793176</v>
       </c>
       <c r="F3">
-        <v>44.60569462353254</v>
+        <v>32.4590615828946</v>
       </c>
       <c r="G3">
-        <v>2.060819324621232</v>
+        <v>2.065976944007172</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.049882896725019</v>
+        <v>4.103959299205246</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.36262992783896</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.64136316998174</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.30400054888292</v>
+        <v>22.19788770050847</v>
       </c>
       <c r="C4">
-        <v>19.28227617595047</v>
+        <v>16.41653073860422</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.13021915811327</v>
+        <v>22.6984646427938</v>
       </c>
       <c r="F4">
-        <v>43.00064359467399</v>
+        <v>31.46488724000547</v>
       </c>
       <c r="G4">
-        <v>2.070032270109234</v>
+        <v>2.069989930898737</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.010813177503367</v>
+        <v>4.158381260608945</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.54247292742143</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.79123767328161</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.73596329708683</v>
+        <v>21.74594641085131</v>
       </c>
       <c r="C5">
-        <v>18.84472337867135</v>
+        <v>16.10870224853176</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.96884065797945</v>
+        <v>22.31155021450021</v>
       </c>
       <c r="F5">
-        <v>42.34429489768242</v>
+        <v>31.06016129202428</v>
       </c>
       <c r="G5">
-        <v>2.073822866001711</v>
+        <v>2.071650594244652</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.996426611103606</v>
+        <v>4.181123607893264</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.61672272803654</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.85905104222376</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.64075759340431</v>
+        <v>21.67000303732198</v>
       </c>
       <c r="C6">
-        <v>18.77138209878139</v>
+        <v>16.05702053379958</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.94191105210837</v>
+        <v>22.24680868270424</v>
       </c>
       <c r="F6">
-        <v>42.23518383789494</v>
+        <v>30.9929978667894</v>
       </c>
       <c r="G6">
-        <v>2.074454642341335</v>
+        <v>2.071927906001104</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.994127536732404</v>
+        <v>4.184933811794727</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.62911011019771</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.87070001058578</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.29639883451546</v>
+        <v>22.19185287418154</v>
       </c>
       <c r="C7">
-        <v>19.27642098054285</v>
+        <v>16.41241730975646</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.12805177835603</v>
+        <v>22.69327995551524</v>
       </c>
       <c r="F7">
-        <v>42.99180052087802</v>
+        <v>31.45942658266725</v>
       </c>
       <c r="G7">
-        <v>2.070083237263496</v>
+        <v>2.070012223247997</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.010613072504397</v>
+        <v>4.1586856967002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.54347038437225</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.79212578144422</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.06350008662608</v>
+        <v>24.36454964528201</v>
       </c>
       <c r="C8">
-        <v>21.40754501741938</v>
+        <v>17.89792786451474</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.92893969696243</v>
+        <v>24.58949449746988</v>
       </c>
       <c r="F8">
-        <v>46.3097221218385</v>
+        <v>33.51987416915247</v>
       </c>
       <c r="G8">
-        <v>2.051095626370529</v>
+        <v>2.061778389694748</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.09710548816401</v>
+        <v>4.047845910722912</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.17400700281001</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.50630315996483</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.06438515163626</v>
+        <v>28.16357306704538</v>
       </c>
       <c r="C9">
-        <v>25.26131244379691</v>
+        <v>20.51211179993492</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.41761203987047</v>
+        <v>28.02854315031504</v>
       </c>
       <c r="F9">
-        <v>52.73231074539773</v>
+        <v>37.53917139299611</v>
       </c>
       <c r="G9">
-        <v>2.014508770219473</v>
+        <v>2.046347192001762</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.323305179877413</v>
+        <v>3.849239994475405</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.48034631476879</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>10.21034076259098</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.51283588611175</v>
+        <v>30.67973433389235</v>
       </c>
       <c r="C10">
-        <v>27.92351280790563</v>
+        <v>22.25130249896521</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.45801468879739</v>
+        <v>30.37893436377615</v>
       </c>
       <c r="F10">
-        <v>57.41502875675951</v>
+        <v>40.46165173729351</v>
       </c>
       <c r="G10">
-        <v>1.987515597068819</v>
+        <v>2.035368651264723</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.531596128005959</v>
+        <v>3.715812535798913</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.9914067227451</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>10.19809360443626</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.04215039076932</v>
+        <v>31.76624972125182</v>
       </c>
       <c r="C11">
-        <v>29.10601365703872</v>
+        <v>23.00360712696295</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.9198662094514</v>
+        <v>31.40979928176482</v>
       </c>
       <c r="F11">
-        <v>59.5465280498796</v>
+        <v>41.78273690096231</v>
       </c>
       <c r="G11">
-        <v>1.975069549570199</v>
+        <v>2.030433179998762</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.637474708766847</v>
+        <v>3.658143799914337</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.77441094497952</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>10.24634210387529</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.61658822516805</v>
+        <v>32.16946782886939</v>
       </c>
       <c r="C12">
-        <v>29.55053250505593</v>
+        <v>23.28295450834187</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.09318078584223</v>
+        <v>31.79470058231645</v>
       </c>
       <c r="F12">
-        <v>60.37523425715795</v>
+        <v>42.28176664551804</v>
       </c>
       <c r="G12">
-        <v>1.970317844579923</v>
+        <v>2.028570955671074</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.679366211622573</v>
+        <v>3.636776243118189</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.69315673427319</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>10.27305441962234</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.49306304058853</v>
+        <v>32.08299103702611</v>
       </c>
       <c r="C13">
-        <v>29.45492763296348</v>
+        <v>23.22303718416609</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.05592304215923</v>
+        <v>31.71204699798498</v>
       </c>
       <c r="F13">
-        <v>60.19125280224549</v>
+        <v>42.17434617876449</v>
       </c>
       <c r="G13">
-        <v>1.971343194995178</v>
+        <v>2.028971748654804</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.67026064044499</v>
+        <v>3.641356575562332</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.71061264321542</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>10.26691561401912</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.08949717211021</v>
+        <v>31.79958669697775</v>
       </c>
       <c r="C14">
-        <v>29.14264460041543</v>
+        <v>23.02669975996204</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.93415599537934</v>
+        <v>31.44157442880135</v>
       </c>
       <c r="F14">
-        <v>59.61301015654759</v>
+        <v>41.82381701486663</v>
       </c>
       <c r="G14">
-        <v>1.974679493554029</v>
+        <v>2.030279849169643</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.640883860683047</v>
+        <v>3.656376225751238</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.76770672555734</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>10.24836679871605</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.84172457324916</v>
+        <v>31.62492675700243</v>
       </c>
       <c r="C15">
-        <v>28.9509642574306</v>
+        <v>22.90571854336495</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.85936734333564</v>
+        <v>31.27519269499012</v>
       </c>
       <c r="F15">
-        <v>59.26541968498964</v>
+        <v>41.60894737079984</v>
       </c>
       <c r="G15">
-        <v>1.976717551681224</v>
+        <v>2.031081921524951</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.623130308946896</v>
+        <v>3.665638607874091</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.80280305762232</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>10.23812406776348</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.4121785570123</v>
+        <v>30.60757003870041</v>
       </c>
       <c r="C16">
-        <v>27.84572696734018</v>
+        <v>22.20135997200671</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.42760607334782</v>
+        <v>30.31079651090902</v>
       </c>
       <c r="F16">
-        <v>57.27584884625869</v>
+        <v>40.3751423465306</v>
       </c>
       <c r="G16">
-        <v>1.988324431258641</v>
+        <v>2.035692234824883</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.524916715593878</v>
+        <v>3.719645078313939</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.00570751484393</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>10.19608507738557</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.52574834542116</v>
+        <v>29.96866564850393</v>
       </c>
       <c r="C17">
-        <v>27.16093352877885</v>
+        <v>21.75933993114798</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.15983819860003</v>
+        <v>29.70937078065259</v>
       </c>
       <c r="F17">
-        <v>56.05636714475103</v>
+        <v>39.61604642928642</v>
       </c>
       <c r="G17">
-        <v>1.995392611908211</v>
+        <v>2.038534384358552</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.467645695662346</v>
+        <v>3.75357450320287</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.13165274971948</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>10.18460095315426</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.01211910106086</v>
+        <v>29.59570767152276</v>
       </c>
       <c r="C18">
-        <v>26.76431284957789</v>
+        <v>21.50143975971245</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.00474240338752</v>
+        <v>29.35983202288296</v>
       </c>
       <c r="F18">
-        <v>55.35498370466873</v>
+        <v>39.17864317578717</v>
       </c>
       <c r="G18">
-        <v>1.999443380325908</v>
+        <v>2.040174752432814</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.435738572516605</v>
+        <v>3.773372345984138</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.20459271445226</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>10.18302271546936</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.83753723814561</v>
+        <v>29.46848592321674</v>
       </c>
       <c r="C19">
-        <v>26.6295294409046</v>
+        <v>21.41348880450806</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.95204242531269</v>
+        <v>29.24086267251962</v>
       </c>
       <c r="F19">
-        <v>55.11748275641369</v>
+        <v>39.03041260100461</v>
       </c>
       <c r="G19">
-        <v>2.000812784032396</v>
+        <v>2.040731170935738</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.425107421212943</v>
+        <v>3.780123131714396</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.22937145938221</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>10.18332924891079</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.6204948423449</v>
+        <v>30.03724403517361</v>
       </c>
       <c r="C20">
-        <v>27.23410957604542</v>
+        <v>21.80677236195602</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.18845428607892</v>
+        <v>29.77376746650648</v>
       </c>
       <c r="F20">
-        <v>56.1861726056297</v>
+        <v>39.69693593172184</v>
       </c>
       <c r="G20">
-        <v>1.994641806655494</v>
+        <v>2.038231260983567</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.473633991686609</v>
+        <v>3.749933186502501</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.11819314532319</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>10.18529785583545</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.2081524136439</v>
+        <v>31.88305144866694</v>
       </c>
       <c r="C21">
-        <v>29.23445089421048</v>
+        <v>23.08451851942937</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.96996401113256</v>
+        <v>31.52116648270714</v>
       </c>
       <c r="F21">
-        <v>59.77974641247322</v>
+        <v>41.92680928288009</v>
       </c>
       <c r="G21">
-        <v>1.973700722964793</v>
+        <v>2.029895460115964</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.649461992235532</v>
+        <v>3.651951510863138</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.75091051882427</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>10.25358070057646</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.8726691813373</v>
+        <v>33.04153973200489</v>
       </c>
       <c r="C22">
-        <v>30.52325774390668</v>
+        <v>23.88737665828112</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.47159046963445</v>
+        <v>32.63139372482155</v>
       </c>
       <c r="F22">
-        <v>62.25442968729892</v>
+        <v>43.37700501722757</v>
       </c>
       <c r="G22">
-        <v>1.959780034981707</v>
+        <v>2.024485851605826</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.77497350103836</v>
+        <v>3.590678052947822</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.51632875206489</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>10.34768011883312</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.98634414954502</v>
+        <v>32.42756487646789</v>
       </c>
       <c r="C23">
-        <v>29.83676990253386</v>
+        <v>23.46180343231365</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.2046644797459</v>
+        <v>32.04172644762957</v>
       </c>
       <c r="F23">
-        <v>60.92684943950316</v>
+        <v>42.60364937950028</v>
       </c>
       <c r="G23">
-        <v>1.967236904571598</v>
+        <v>2.027370165149143</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.706940640654214</v>
+        <v>3.623114507496156</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.64096783962832</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>10.29271896631373</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.57767250905501</v>
+        <v>30.00625733421434</v>
       </c>
       <c r="C24">
-        <v>27.20103585298439</v>
+        <v>21.78533992833942</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.17552054696077</v>
+        <v>29.74466547405823</v>
       </c>
       <c r="F24">
-        <v>56.12748853526053</v>
+        <v>39.66036886413537</v>
       </c>
       <c r="G24">
-        <v>1.994981284582153</v>
+        <v>2.038368283066196</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.470923524314966</v>
+        <v>3.751578520789937</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.12427658374367</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>10.18496719142678</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.75394135288719</v>
+        <v>27.18462363450137</v>
       </c>
       <c r="C25">
-        <v>24.25086895583616</v>
+        <v>19.83689123151353</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.02415460758484</v>
+        <v>27.12893643571276</v>
       </c>
       <c r="F25">
-        <v>51.00319118507289</v>
+        <v>36.45627484204453</v>
       </c>
       <c r="G25">
-        <v>2.024384627839906</v>
+        <v>2.05045276113533</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.255318898556782</v>
+        <v>3.900866101891364</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.66457758356943</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.25758451522928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.92178101947466</v>
+        <v>15.70915780501259</v>
       </c>
       <c r="C2">
-        <v>18.28021192588423</v>
+        <v>10.70920021105154</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.08472142053754</v>
+        <v>24.80484117407459</v>
       </c>
       <c r="F2">
-        <v>34.0775719951256</v>
+        <v>38.9703355692271</v>
       </c>
       <c r="G2">
-        <v>2.059598496728832</v>
+        <v>3.609357570187385</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.019051645705537</v>
+        <v>7.554241624709104</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.44516557515738</v>
+        <v>18.49811662722985</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.27049391500505</v>
+        <v>14.9225889089125</v>
       </c>
       <c r="C3">
-        <v>17.14881661523138</v>
+        <v>10.07614640023442</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.62745611793176</v>
+        <v>24.46313151764528</v>
       </c>
       <c r="F3">
-        <v>32.4590615828946</v>
+        <v>38.81397716675223</v>
       </c>
       <c r="G3">
-        <v>2.065976944007172</v>
+        <v>3.611612679233842</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.103959299205246</v>
+        <v>7.588878807803155</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.64136316998174</v>
+        <v>18.66998579175946</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.19788770050847</v>
+        <v>14.41768862667285</v>
       </c>
       <c r="C4">
-        <v>16.41653073860422</v>
+        <v>9.6651455683797</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.6984646427938</v>
+        <v>24.25525372428084</v>
       </c>
       <c r="F4">
-        <v>31.46488724000547</v>
+        <v>38.73097637385831</v>
       </c>
       <c r="G4">
-        <v>2.069989930898737</v>
+        <v>3.613067472433015</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.158381260608945</v>
+        <v>7.611325524439433</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.79123767328161</v>
+        <v>18.78289541656396</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.74594641085131</v>
+        <v>14.20662669745182</v>
       </c>
       <c r="C5">
-        <v>16.10870224853176</v>
+        <v>9.492111557157806</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.31155021450021</v>
+        <v>24.17112098167006</v>
       </c>
       <c r="F5">
-        <v>31.06016129202428</v>
+        <v>38.70044397735072</v>
       </c>
       <c r="G5">
-        <v>2.071650594244652</v>
+        <v>3.613678011051287</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.181123607893264</v>
+        <v>7.620769851048864</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.85905104222376</v>
+        <v>18.83075393398789</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.67000303732198</v>
+        <v>14.17126602470314</v>
       </c>
       <c r="C6">
-        <v>16.05702053379958</v>
+        <v>9.463046404370692</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.24680868270424</v>
+        <v>24.15718848530195</v>
       </c>
       <c r="F6">
-        <v>30.9929978667894</v>
+        <v>38.69557338697577</v>
       </c>
       <c r="G6">
-        <v>2.071927906001104</v>
+        <v>3.613780461222794</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.184933811794727</v>
+        <v>7.62235603519241</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.87070001058578</v>
+        <v>18.83881209291801</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.19185287418154</v>
+        <v>14.4148633754037</v>
       </c>
       <c r="C7">
-        <v>16.41241730975646</v>
+        <v>9.662834342476211</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.69327995551524</v>
+        <v>24.25411661347384</v>
       </c>
       <c r="F7">
-        <v>31.45942658266725</v>
+        <v>38.73055125376742</v>
       </c>
       <c r="G7">
-        <v>2.070012223247997</v>
+        <v>3.613075634631434</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.1586856967002</v>
+        <v>7.611451690224419</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.79212578144422</v>
+        <v>18.78353338705759</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.36454964528201</v>
+        <v>15.44261659681623</v>
       </c>
       <c r="C8">
-        <v>17.89792786451474</v>
+        <v>10.49558383003306</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.58949449746988</v>
+        <v>24.68667439726998</v>
       </c>
       <c r="F8">
-        <v>33.51987416915247</v>
+        <v>38.9137384997037</v>
       </c>
       <c r="G8">
-        <v>2.061778389694748</v>
+        <v>3.610120608679125</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.047845910722912</v>
+        <v>7.565940083545336</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.50630315996483</v>
+        <v>18.55583954406638</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.16357306704538</v>
+        <v>17.27652240782981</v>
       </c>
       <c r="C9">
-        <v>20.51211179993492</v>
+        <v>11.94970783343662</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>28.02854315031504</v>
+        <v>25.54615831245221</v>
       </c>
       <c r="F9">
-        <v>37.53917139299611</v>
+        <v>39.37497531057026</v>
       </c>
       <c r="G9">
-        <v>2.046347192001762</v>
+        <v>3.60487966834991</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.849239994475405</v>
+        <v>7.486024344233226</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.21034076259098</v>
+        <v>18.16832194522659</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.67973433389235</v>
+        <v>18.50532417189012</v>
       </c>
       <c r="C10">
-        <v>22.25130249896521</v>
+        <v>12.90721767830671</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>30.37893436377615</v>
+        <v>26.17900956848825</v>
       </c>
       <c r="F10">
-        <v>40.46165173729351</v>
+        <v>39.77412158467931</v>
       </c>
       <c r="G10">
-        <v>2.035368651264723</v>
+        <v>3.601362954775072</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.715812535798913</v>
+        <v>7.432964217028337</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.19809360443626</v>
+        <v>17.92017364645741</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.76624972125182</v>
+        <v>19.03739309466579</v>
       </c>
       <c r="C11">
-        <v>23.00360712696295</v>
+        <v>13.31854801249046</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>31.40979928176482</v>
+        <v>26.46607611257662</v>
       </c>
       <c r="F11">
-        <v>41.78273690096231</v>
+        <v>39.96828513863473</v>
       </c>
       <c r="G11">
-        <v>2.030433179998762</v>
+        <v>3.599834773047865</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.658143799914337</v>
+        <v>7.410046163813043</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.24634210387529</v>
+        <v>17.81536039372199</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.16946782886939</v>
+        <v>19.2349271327002</v>
       </c>
       <c r="C12">
-        <v>23.28295450834187</v>
+        <v>13.47081252208667</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>31.79470058231645</v>
+        <v>26.57457053468903</v>
       </c>
       <c r="F12">
-        <v>42.28176664551804</v>
+        <v>40.0435708930477</v>
       </c>
       <c r="G12">
-        <v>2.028570955671074</v>
+        <v>3.599266322556981</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.636776243118189</v>
+        <v>7.401542506545685</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.27305441962234</v>
+        <v>17.77684303479241</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.08299103702611</v>
+        <v>19.192561351965</v>
       </c>
       <c r="C13">
-        <v>23.22303718416609</v>
+        <v>13.43817530212761</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>31.71204699798498</v>
+        <v>26.5512151819687</v>
       </c>
       <c r="F13">
-        <v>42.17434617876449</v>
+        <v>40.02727931313575</v>
       </c>
       <c r="G13">
-        <v>2.028971748654804</v>
+        <v>3.599388294051657</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.641356575562332</v>
+        <v>7.403366148503783</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.26691561401912</v>
+        <v>17.78508605586189</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.79958669697775</v>
+        <v>19.05372387321936</v>
       </c>
       <c r="C14">
-        <v>23.02669975996204</v>
+        <v>13.33114504223073</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>31.44157442880135</v>
+        <v>26.4750067770453</v>
       </c>
       <c r="F14">
-        <v>41.82381701486663</v>
+        <v>39.974443966861</v>
       </c>
       <c r="G14">
-        <v>2.030279849169643</v>
+        <v>3.599787801401332</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.656376225751238</v>
+        <v>7.409343059648021</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.24836679871605</v>
+        <v>17.8121679620964</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.62492675700243</v>
+        <v>18.96816559205265</v>
       </c>
       <c r="C15">
-        <v>22.90571854336495</v>
+        <v>13.26513022099864</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>31.27519269499012</v>
+        <v>26.42829666575933</v>
       </c>
       <c r="F15">
-        <v>41.60894737079984</v>
+        <v>39.94230846831401</v>
       </c>
       <c r="G15">
-        <v>2.031081921524951</v>
+        <v>3.600033842931299</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.665638607874091</v>
+        <v>7.413026856903191</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.23812406776348</v>
+        <v>17.82890957127999</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.60757003870041</v>
+        <v>18.47000350998607</v>
       </c>
       <c r="C16">
-        <v>22.20135997200671</v>
+        <v>12.87984734292605</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>30.31079651090902</v>
+        <v>26.1602245319817</v>
       </c>
       <c r="F16">
-        <v>40.3751423465306</v>
+        <v>39.76168168324623</v>
       </c>
       <c r="G16">
-        <v>2.035692234824883</v>
+        <v>3.601464260833963</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.719645078313939</v>
+        <v>7.434486464476228</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.19608507738557</v>
+        <v>17.92718690755662</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.96866564850393</v>
+        <v>18.15744201297592</v>
       </c>
       <c r="C17">
-        <v>21.75933993114798</v>
+        <v>12.63726948414282</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>29.70937078065259</v>
+        <v>25.99549344822488</v>
       </c>
       <c r="F17">
-        <v>39.61604642928642</v>
+        <v>39.65406316759623</v>
       </c>
       <c r="G17">
-        <v>2.038534384358552</v>
+        <v>3.602360071842229</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.75357450320287</v>
+        <v>7.447963220534369</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.18460095315426</v>
+        <v>17.98955277699172</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.59570767152276</v>
+        <v>17.97513471465044</v>
       </c>
       <c r="C18">
-        <v>21.50143975971245</v>
+        <v>12.49546327974022</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>29.35983202288296</v>
+        <v>25.90067267484241</v>
       </c>
       <c r="F18">
-        <v>39.17864317578717</v>
+        <v>39.59335213756758</v>
       </c>
       <c r="G18">
-        <v>2.040174752432814</v>
+        <v>3.602882060232044</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.773372345984138</v>
+        <v>7.455829481121758</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.18302271546936</v>
+        <v>18.02618284215243</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.46848592321674</v>
+        <v>17.91297666831917</v>
       </c>
       <c r="C19">
-        <v>21.41348880450806</v>
+        <v>12.44705864363765</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>29.24086267251962</v>
+        <v>25.86855854737199</v>
       </c>
       <c r="F19">
-        <v>39.03041260100461</v>
+        <v>39.5730019793117</v>
       </c>
       <c r="G19">
-        <v>2.040731170935738</v>
+        <v>3.603059956107762</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.780123131714396</v>
+        <v>7.458512589510109</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.18332924891079</v>
+        <v>18.03871511258476</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.03724403517361</v>
+        <v>18.19097719743263</v>
       </c>
       <c r="C20">
-        <v>21.80677236195602</v>
+        <v>12.66332856742661</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>29.77376746650648</v>
+        <v>26.01303747092347</v>
       </c>
       <c r="F20">
-        <v>39.69693593172184</v>
+        <v>39.66539670902116</v>
       </c>
       <c r="G20">
-        <v>2.038231260983567</v>
+        <v>3.602264013904789</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.749933186502501</v>
+        <v>7.446516719882867</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.18529785583545</v>
+        <v>17.98283519400519</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.88305144866694</v>
+        <v>19.09461152412665</v>
       </c>
       <c r="C21">
-        <v>23.08451851942937</v>
+        <v>13.36267740332504</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>31.52116648270714</v>
+        <v>26.49739750241487</v>
       </c>
       <c r="F21">
-        <v>41.92680928288009</v>
+        <v>39.98991563624503</v>
       </c>
       <c r="G21">
-        <v>2.029895460115964</v>
+        <v>3.599670178973462</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3.651951510863138</v>
+        <v>7.407582752146158</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.25358070057646</v>
+        <v>17.8041814083125</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.04153973200489</v>
+        <v>19.6621456410901</v>
       </c>
       <c r="C22">
-        <v>23.88737665828112</v>
+        <v>13.79935527087289</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>32.63139372482155</v>
+        <v>26.81268100380075</v>
       </c>
       <c r="F22">
-        <v>43.37700501722757</v>
+        <v>40.21224148807349</v>
       </c>
       <c r="G22">
-        <v>2.024485851605826</v>
+        <v>3.598034611652644</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3.590678052947822</v>
+        <v>7.383156492182333</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.34768011883312</v>
+        <v>17.69426498581077</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.42756487646789</v>
+        <v>19.36137235995398</v>
       </c>
       <c r="C23">
-        <v>23.46180343231365</v>
+        <v>13.56815983565708</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>32.04172644762957</v>
+        <v>26.64455494911029</v>
       </c>
       <c r="F23">
-        <v>42.60364937950028</v>
+        <v>40.09266317313405</v>
       </c>
       <c r="G23">
-        <v>2.027370165149143</v>
+        <v>3.598902104694531</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.623114507496156</v>
+        <v>7.396100111157048</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.29271896631373</v>
+        <v>17.75229892978244</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.00625733421434</v>
+        <v>18.17582406882164</v>
       </c>
       <c r="C24">
-        <v>21.78533992833942</v>
+        <v>12.65155455914747</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>29.74466547405823</v>
+        <v>26.00510616831335</v>
       </c>
       <c r="F24">
-        <v>39.66036886413537</v>
+        <v>39.66026919681712</v>
       </c>
       <c r="G24">
-        <v>2.038368283066196</v>
+        <v>3.602307419966819</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.751578520789937</v>
+        <v>7.447170314303625</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.18496719142678</v>
+        <v>17.98586979972016</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.18462363450137</v>
+        <v>16.80074925015739</v>
       </c>
       <c r="C25">
-        <v>19.83689123151353</v>
+        <v>11.57570084204496</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>27.12893643571276</v>
+        <v>25.31300969901667</v>
       </c>
       <c r="F25">
-        <v>36.45627484204453</v>
+        <v>39.23945593487018</v>
       </c>
       <c r="G25">
-        <v>2.05045276113533</v>
+        <v>3.606238585563084</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.900866101891364</v>
+        <v>7.506648272792525</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.25758451522928</v>
+        <v>18.26678015199523</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.70915780501259</v>
+        <v>24.9217810194747</v>
       </c>
       <c r="C2">
-        <v>10.70920021105154</v>
+        <v>18.28021192588422</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.80484117407459</v>
+        <v>25.08472142053754</v>
       </c>
       <c r="F2">
-        <v>38.9703355692271</v>
+        <v>34.07757199512555</v>
       </c>
       <c r="G2">
-        <v>3.609357570187385</v>
+        <v>2.059598496728564</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.554241624709104</v>
+        <v>4.019051645705569</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.49811662722985</v>
+        <v>10.44516557515736</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.9225889089125</v>
+        <v>23.27049391500503</v>
       </c>
       <c r="C3">
-        <v>10.07614640023442</v>
+        <v>17.14881661523139</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.46313151764528</v>
+        <v>23.62745611793177</v>
       </c>
       <c r="F3">
-        <v>38.81397716675223</v>
+        <v>32.45906158289461</v>
       </c>
       <c r="G3">
-        <v>3.611612679233842</v>
+        <v>2.065976944007171</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.588878807803155</v>
+        <v>4.103959299205276</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.66998579175946</v>
+        <v>10.64136316998181</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.41768862667285</v>
+        <v>22.19788770050843</v>
       </c>
       <c r="C4">
-        <v>9.6651455683797</v>
+        <v>16.41653073860419</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>24.25525372428084</v>
+        <v>22.69846464279376</v>
       </c>
       <c r="F4">
-        <v>38.73097637385831</v>
+        <v>31.4648872400055</v>
       </c>
       <c r="G4">
-        <v>3.613067472433015</v>
+        <v>2.069989930898604</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.611325524439433</v>
+        <v>4.158381260608947</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.78289541656396</v>
+        <v>10.79123767328181</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.20662669745182</v>
+        <v>21.74594641085138</v>
       </c>
       <c r="C5">
-        <v>9.492111557157806</v>
+        <v>16.1087022485317</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.17112098167006</v>
+        <v>22.31155021450024</v>
       </c>
       <c r="F5">
-        <v>38.70044397735072</v>
+        <v>31.06016129202426</v>
       </c>
       <c r="G5">
-        <v>3.613678011051287</v>
+        <v>2.07165059424452</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.620769851048864</v>
+        <v>4.181123607893268</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.83075393398789</v>
+        <v>10.85905104222369</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.17126602470314</v>
+        <v>21.67000303732199</v>
       </c>
       <c r="C6">
-        <v>9.463046404370692</v>
+        <v>16.05702053379956</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.15718848530195</v>
+        <v>22.24680868270425</v>
       </c>
       <c r="F6">
-        <v>38.69557338697577</v>
+        <v>30.99299786678936</v>
       </c>
       <c r="G6">
-        <v>3.613780461222794</v>
+        <v>2.071927906000836</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.62235603519241</v>
+        <v>4.184933811794698</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.83881209291801</v>
+        <v>10.87070001058574</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.4148633754037</v>
+        <v>22.19185287418154</v>
       </c>
       <c r="C7">
-        <v>9.662834342476211</v>
+        <v>16.41241730975637</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24.25411661347384</v>
+        <v>22.69327995551525</v>
       </c>
       <c r="F7">
-        <v>38.73055125376742</v>
+        <v>31.4594265826673</v>
       </c>
       <c r="G7">
-        <v>3.613075634631434</v>
+        <v>2.070012223248265</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.611451690224419</v>
+        <v>4.158685696700235</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.78353338705759</v>
+        <v>10.79212578144429</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.44261659681623</v>
+        <v>24.364549645282</v>
       </c>
       <c r="C8">
-        <v>10.49558383003306</v>
+        <v>17.89792786451479</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.68667439726998</v>
+        <v>24.58949449746986</v>
       </c>
       <c r="F8">
-        <v>38.9137384997037</v>
+        <v>33.51987416915252</v>
       </c>
       <c r="G8">
-        <v>3.610120608679125</v>
+        <v>2.061778389694749</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.565940083545336</v>
+        <v>4.047845910722848</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.55583954406638</v>
+        <v>10.50630315996489</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.27652240782981</v>
+        <v>28.16357306704534</v>
       </c>
       <c r="C9">
-        <v>11.94970783343662</v>
+        <v>20.51211179993489</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>25.54615831245221</v>
+        <v>28.02854315031503</v>
       </c>
       <c r="F9">
-        <v>39.37497531057026</v>
+        <v>37.53917139299615</v>
       </c>
       <c r="G9">
-        <v>3.60487966834991</v>
+        <v>2.046347192001494</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.486024344233226</v>
+        <v>3.849239994475373</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.16832194522659</v>
+        <v>10.21034076259104</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.50532417189012</v>
+        <v>30.67973433389238</v>
       </c>
       <c r="C10">
-        <v>12.90721767830671</v>
+        <v>22.25130249896515</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.17900956848825</v>
+        <v>30.37893436377613</v>
       </c>
       <c r="F10">
-        <v>39.77412158467931</v>
+        <v>40.46165173729351</v>
       </c>
       <c r="G10">
-        <v>3.601362954775072</v>
+        <v>2.03536865126499</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.432964217028337</v>
+        <v>3.715812535798941</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.92017364645741</v>
+        <v>10.19809360443632</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.03739309466579</v>
+        <v>31.76624972125185</v>
       </c>
       <c r="C11">
-        <v>13.31854801249046</v>
+        <v>23.00360712696293</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.46607611257662</v>
+        <v>31.40979928176479</v>
       </c>
       <c r="F11">
-        <v>39.96828513863473</v>
+        <v>41.78273690096227</v>
       </c>
       <c r="G11">
-        <v>3.599834773047865</v>
+        <v>2.030433179998627</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.410046163813043</v>
+        <v>3.658143799914326</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.81536039372199</v>
+        <v>10.24634210387531</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.2349271327002</v>
+        <v>32.16946782886927</v>
       </c>
       <c r="C12">
-        <v>13.47081252208667</v>
+        <v>23.28295450834185</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>26.57457053468903</v>
+        <v>31.79470058231642</v>
       </c>
       <c r="F12">
-        <v>40.0435708930477</v>
+        <v>42.28176664551802</v>
       </c>
       <c r="G12">
-        <v>3.599266322556981</v>
+        <v>2.028570955671074</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.401542506545685</v>
+        <v>3.636776243118219</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.77684303479241</v>
+        <v>10.27305441962244</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.192561351965</v>
+        <v>32.08299103702608</v>
       </c>
       <c r="C13">
-        <v>13.43817530212761</v>
+        <v>23.22303718416616</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>26.5512151819687</v>
+        <v>31.71204699798497</v>
       </c>
       <c r="F13">
-        <v>40.02727931313575</v>
+        <v>42.17434617876448</v>
       </c>
       <c r="G13">
-        <v>3.599388294051657</v>
+        <v>2.028971748654669</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.403366148503783</v>
+        <v>3.641356575562362</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.78508605586189</v>
+        <v>10.2669156140191</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.05372387321936</v>
+        <v>31.79958669697771</v>
       </c>
       <c r="C14">
-        <v>13.33114504223073</v>
+        <v>23.02669975996203</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>26.4750067770453</v>
+        <v>31.44157442880133</v>
       </c>
       <c r="F14">
-        <v>39.974443966861</v>
+        <v>41.82381701486658</v>
       </c>
       <c r="G14">
-        <v>3.599787801401332</v>
+        <v>2.030279849169643</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.409343059648021</v>
+        <v>3.656376225751266</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.8121679620964</v>
+        <v>10.24836679871611</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.96816559205265</v>
+        <v>31.6249267570024</v>
       </c>
       <c r="C15">
-        <v>13.26513022099864</v>
+        <v>22.905718543365</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>26.42829666575933</v>
+        <v>31.27519269499013</v>
       </c>
       <c r="F15">
-        <v>39.94230846831401</v>
+        <v>41.60894737079983</v>
       </c>
       <c r="G15">
-        <v>3.600033842931299</v>
+        <v>2.031081921525085</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.413026856903191</v>
+        <v>3.665638607874107</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.82890957127999</v>
+        <v>10.23812406776353</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.47000350998607</v>
+        <v>30.60757003870041</v>
       </c>
       <c r="C16">
-        <v>12.87984734292605</v>
+        <v>22.20135997200675</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.1602245319817</v>
+        <v>30.31079651090898</v>
       </c>
       <c r="F16">
-        <v>39.76168168324623</v>
+        <v>40.37514234653058</v>
       </c>
       <c r="G16">
-        <v>3.601464260833963</v>
+        <v>2.035692234824883</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.434486464476228</v>
+        <v>3.719645078313844</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.92718690755662</v>
+        <v>10.19608507738552</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.15744201297592</v>
+        <v>29.96866564850396</v>
       </c>
       <c r="C17">
-        <v>12.63726948414282</v>
+        <v>21.75933993114816</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.99549344822488</v>
+        <v>29.70937078065266</v>
       </c>
       <c r="F17">
-        <v>39.65406316759623</v>
+        <v>39.61604642928642</v>
       </c>
       <c r="G17">
-        <v>3.602360071842229</v>
+        <v>2.038534384358418</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.447963220534369</v>
+        <v>3.753574503202838</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.98955277699172</v>
+        <v>10.18460095315409</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.97513471465044</v>
+        <v>29.5957076715227</v>
       </c>
       <c r="C18">
-        <v>12.49546327974022</v>
+        <v>21.50143975971242</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.90067267484241</v>
+        <v>29.35983202288294</v>
       </c>
       <c r="F18">
-        <v>39.59335213756758</v>
+        <v>39.17864317578712</v>
       </c>
       <c r="G18">
-        <v>3.602882060232044</v>
+        <v>2.040174752432814</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.455829481121758</v>
+        <v>3.773372345984141</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.02618284215243</v>
+        <v>10.18302271546948</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.91297666831917</v>
+        <v>29.46848592321671</v>
       </c>
       <c r="C19">
-        <v>12.44705864363765</v>
+        <v>21.41348880450798</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.86855854737199</v>
+        <v>29.24086267251961</v>
       </c>
       <c r="F19">
-        <v>39.5730019793117</v>
+        <v>39.03041260100468</v>
       </c>
       <c r="G19">
-        <v>3.603059956107762</v>
+        <v>2.040731170935604</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.458512589510109</v>
+        <v>3.780123131714373</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.03871511258476</v>
+        <v>10.18332924891089</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.19097719743263</v>
+        <v>30.03724403517361</v>
       </c>
       <c r="C20">
-        <v>12.66332856742661</v>
+        <v>21.80677236195597</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>26.01303747092347</v>
+        <v>29.77376746650645</v>
       </c>
       <c r="F20">
-        <v>39.66539670902116</v>
+        <v>39.69693593172184</v>
       </c>
       <c r="G20">
-        <v>3.602264013904789</v>
+        <v>2.038231260983299</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.446516719882867</v>
+        <v>3.749933186502533</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.98283519400519</v>
+        <v>10.18529785583552</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.09461152412665</v>
+        <v>31.88305144866683</v>
       </c>
       <c r="C21">
-        <v>13.36267740332504</v>
+        <v>23.08451851942932</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26.49739750241487</v>
+        <v>31.52116648270709</v>
       </c>
       <c r="F21">
-        <v>39.98991563624503</v>
+        <v>41.92680928288009</v>
       </c>
       <c r="G21">
-        <v>3.599670178973462</v>
+        <v>2.029895460115829</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.407582752146158</v>
+        <v>3.651951510863235</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.8041814083125</v>
+        <v>10.25358070057667</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.6621456410901</v>
+        <v>33.04153973200484</v>
       </c>
       <c r="C22">
-        <v>13.79935527087289</v>
+        <v>23.88737665828112</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>26.81268100380075</v>
+        <v>32.63139372482153</v>
       </c>
       <c r="F22">
-        <v>40.21224148807349</v>
+        <v>43.37700501722761</v>
       </c>
       <c r="G22">
-        <v>3.598034611652644</v>
+        <v>2.024485851605691</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.383156492182333</v>
+        <v>3.590678052947872</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.69426498581077</v>
+        <v>10.34768011883319</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.36137235995398</v>
+        <v>32.4275648764679</v>
       </c>
       <c r="C23">
-        <v>13.56815983565708</v>
+        <v>23.46180343231365</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>26.64455494911029</v>
+        <v>32.04172644762959</v>
       </c>
       <c r="F23">
-        <v>40.09266317313405</v>
+        <v>42.60364937950025</v>
       </c>
       <c r="G23">
-        <v>3.598902104694531</v>
+        <v>2.027370165149278</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.396100111157048</v>
+        <v>3.623114507496189</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.75229892978244</v>
+        <v>10.29271896631369</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.17582406882164</v>
+        <v>30.00625733421441</v>
       </c>
       <c r="C24">
-        <v>12.65155455914747</v>
+        <v>21.78533992833938</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>26.00510616831335</v>
+        <v>29.74466547405828</v>
       </c>
       <c r="F24">
-        <v>39.66026919681712</v>
+        <v>39.66036886413538</v>
       </c>
       <c r="G24">
-        <v>3.602307419966819</v>
+        <v>2.03836828306633</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.447170314303625</v>
+        <v>3.751578520789901</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.98586979972016</v>
+        <v>10.18496719142673</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.80074925015739</v>
+        <v>27.18462363450135</v>
       </c>
       <c r="C25">
-        <v>11.57570084204496</v>
+        <v>19.8368912315135</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.31300969901667</v>
+        <v>27.12893643571275</v>
       </c>
       <c r="F25">
-        <v>39.23945593487018</v>
+        <v>36.45627484204452</v>
       </c>
       <c r="G25">
-        <v>3.606238585563084</v>
+        <v>2.050452761135197</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.506648272792525</v>
+        <v>3.900866101891359</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.26678015199523</v>
+        <v>10.25758451522928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.9217810194747</v>
+        <v>21.33032503704562</v>
       </c>
       <c r="C2">
-        <v>18.28021192588422</v>
+        <v>17.51573641557463</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.08472142053754</v>
+        <v>22.60574780482797</v>
       </c>
       <c r="F2">
-        <v>34.07757199512555</v>
+        <v>39.77094111295357</v>
       </c>
       <c r="G2">
-        <v>2.059598496728564</v>
+        <v>30.55388551618218</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.20902726858859</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.344817348839081</v>
       </c>
       <c r="J2">
-        <v>4.019051645705569</v>
+        <v>9.96461360106732</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.72552544979902</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.675877938611627</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,45 +466,51 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.44516557515736</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>11.75705133189446</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.27049391500503</v>
+        <v>19.90475467645363</v>
       </c>
       <c r="C3">
-        <v>17.14881661523139</v>
+        <v>16.37449758327256</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.62745611793177</v>
+        <v>21.3514551198185</v>
       </c>
       <c r="F3">
-        <v>32.45906158289461</v>
+        <v>37.82792946731507</v>
       </c>
       <c r="G3">
-        <v>2.065976944007171</v>
+        <v>29.1568334532253</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.91202305390368</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.151724656457474</v>
       </c>
       <c r="J3">
-        <v>4.103959299205276</v>
+        <v>9.815402457518042</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.69004162013137</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.565678089996324</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,45 +519,51 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.64136316998181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>11.86240397344088</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.19788770050843</v>
+        <v>18.9737781754683</v>
       </c>
       <c r="C4">
-        <v>16.41653073860419</v>
+        <v>15.6372621112499</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.69846464279376</v>
+        <v>20.54557352403894</v>
       </c>
       <c r="F4">
-        <v>31.4648872400055</v>
+        <v>36.59246621478099</v>
       </c>
       <c r="G4">
-        <v>2.069989930898604</v>
+        <v>28.28094467408628</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.72340816280152</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.030080721223612</v>
       </c>
       <c r="J4">
-        <v>4.158381260608947</v>
+        <v>9.726888815456284</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.67412553837882</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.495783913619882</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,45 +572,51 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.79123767328181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>11.9297642144754</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.74594641085138</v>
+        <v>18.5731888033113</v>
       </c>
       <c r="C5">
-        <v>16.1087022485317</v>
+        <v>15.33468974291829</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.31155021450024</v>
+        <v>20.21442827783537</v>
       </c>
       <c r="F5">
-        <v>31.06016129202426</v>
+        <v>36.07228682144517</v>
       </c>
       <c r="G5">
-        <v>2.07165059424452</v>
+        <v>27.8974724293491</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.644751175995577</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.979984277216408</v>
       </c>
       <c r="J5">
-        <v>4.181123607893268</v>
+        <v>9.687475752918662</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.66099904430334</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.465912650887767</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,45 +625,51 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.85905104222369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>11.95885725219864</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.67000303732199</v>
+        <v>18.49709920874317</v>
       </c>
       <c r="C6">
-        <v>16.05702053379956</v>
+        <v>15.29252784071823</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.24680868270425</v>
+        <v>20.16638153598763</v>
       </c>
       <c r="F6">
-        <v>30.99299786678936</v>
+        <v>35.97732756769039</v>
       </c>
       <c r="G6">
-        <v>2.071927906000836</v>
+        <v>27.80613163742569</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.631359888837215</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.972132282039651</v>
       </c>
       <c r="J6">
-        <v>4.184933811794698</v>
+        <v>9.675939557876017</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.64907879154447</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.459908427839029</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,45 +678,51 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.87070001058574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>11.96493941543486</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.19185287418154</v>
+        <v>18.94519279471591</v>
       </c>
       <c r="C7">
-        <v>16.41241730975637</v>
+        <v>15.65624325504041</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.69327995551525</v>
+        <v>20.56112392251621</v>
       </c>
       <c r="F7">
-        <v>31.4594265826673</v>
+        <v>36.56406995069355</v>
       </c>
       <c r="G7">
-        <v>2.070012223248265</v>
+        <v>28.20202975202073</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.721726849504214</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.030480258598044</v>
       </c>
       <c r="J7">
-        <v>4.158685696700235</v>
+        <v>9.71265897968915</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.64713052762801</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.492647216433952</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,45 +731,51 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.79212578144429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>11.93356063569108</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.364549645282</v>
+        <v>20.8219253534811</v>
       </c>
       <c r="C8">
-        <v>17.89792786451479</v>
+        <v>17.15791174355909</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.58949449746986</v>
+        <v>22.20541492820275</v>
       </c>
       <c r="F8">
-        <v>33.51987416915252</v>
+        <v>39.08340280130835</v>
       </c>
       <c r="G8">
-        <v>2.061778389694749</v>
+        <v>29.98386492500277</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.107103553712906</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.279786378343711</v>
       </c>
       <c r="J8">
-        <v>4.047845910722848</v>
+        <v>9.894734131089383</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.67669897466554</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.634823514574395</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,45 +784,51 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.50630315996489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>11.79776843437725</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.16357306704534</v>
+        <v>24.10098304731482</v>
       </c>
       <c r="C9">
-        <v>20.51211179993489</v>
+        <v>19.77799981376321</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>28.02854315031503</v>
+        <v>25.10952681823195</v>
       </c>
       <c r="F9">
-        <v>37.53917139299615</v>
+        <v>43.70524639737869</v>
       </c>
       <c r="G9">
-        <v>2.046347192001494</v>
+        <v>33.44092557097558</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.815780373049476</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.744451709247993</v>
       </c>
       <c r="J9">
-        <v>3.849239994475373</v>
+        <v>10.30047720895067</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.83271553148832</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.900765316906134</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,45 +837,51 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.21034076259104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.54636520734117</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.67973433389238</v>
+        <v>26.19501118708073</v>
       </c>
       <c r="C10">
-        <v>22.25130249896515</v>
+        <v>21.47680898606139</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>30.37893436377613</v>
+        <v>26.65488368486317</v>
       </c>
       <c r="F10">
-        <v>40.46165173729351</v>
+        <v>46.43447378409574</v>
       </c>
       <c r="G10">
-        <v>2.03536865126499</v>
+        <v>35.63091550966099</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.282378622141306</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.067244899623783</v>
       </c>
       <c r="J10">
-        <v>3.715812535798941</v>
+        <v>10.56628394484927</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.91294296988268</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.028746633130321</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,45 +890,51 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.19809360443632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.39145850401726</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.76624972125185</v>
+        <v>26.69157118407251</v>
       </c>
       <c r="C11">
-        <v>23.00360712696293</v>
+        <v>21.70736651135351</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>31.40979928176479</v>
+        <v>23.80795087486248</v>
       </c>
       <c r="F11">
-        <v>41.78273690096227</v>
+        <v>43.9528068807543</v>
       </c>
       <c r="G11">
-        <v>2.030433179998627</v>
+        <v>34.73870123063765</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.844795887771755</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.160666919408196</v>
       </c>
       <c r="J11">
-        <v>3.658143799914326</v>
+        <v>10.31140933581411</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.41923377565216</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.65928567668489</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,45 +943,51 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.24634210387531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.45873905267185</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.16946782886927</v>
+        <v>26.71162806482698</v>
       </c>
       <c r="C12">
-        <v>23.28295450834185</v>
+        <v>21.52726285359418</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>31.79470058231642</v>
+        <v>21.09086436146293</v>
       </c>
       <c r="F12">
-        <v>42.28176664551802</v>
+        <v>41.28533612193419</v>
       </c>
       <c r="G12">
-        <v>2.028570955671074</v>
+        <v>33.60071172961498</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.81911621635276</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.173334478423478</v>
       </c>
       <c r="J12">
-        <v>3.636776243118219</v>
+        <v>10.05240109747176</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.01811416305975</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.412858633081381</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,45 +996,51 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.27305441962244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.54936820775712</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.08299103702608</v>
+        <v>26.34101289433404</v>
       </c>
       <c r="C13">
-        <v>23.22303718416616</v>
+        <v>21.04203357691435</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>31.71204699798497</v>
+        <v>18.28257911419701</v>
       </c>
       <c r="F13">
-        <v>42.17434617876448</v>
+        <v>38.21874831698759</v>
       </c>
       <c r="G13">
-        <v>2.028971748654669</v>
+        <v>32.07476091011644</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.950169275983868</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.126388284859949</v>
       </c>
       <c r="J13">
-        <v>3.641356575562362</v>
+        <v>9.751228678792128</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.62162021082244</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.251927343291905</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,45 +1049,51 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.2669156140191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.66544993304475</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.79958669697771</v>
+        <v>25.89470574960312</v>
       </c>
       <c r="C14">
-        <v>23.02669975996203</v>
+        <v>20.56360048838032</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>31.44157442880133</v>
+        <v>16.28131794196365</v>
       </c>
       <c r="F14">
-        <v>41.82381701486658</v>
+        <v>35.85446514318018</v>
       </c>
       <c r="G14">
-        <v>2.030279849169643</v>
+        <v>30.79520215207622</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.801974387826891</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.067417620233608</v>
       </c>
       <c r="J14">
-        <v>3.656376225751266</v>
+        <v>9.517061572990398</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.34090769167362</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.195565949016094</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,45 +1102,51 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.24836679871611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.75917590284233</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.6249267570024</v>
+        <v>25.69349147127394</v>
       </c>
       <c r="C15">
-        <v>22.905718543365</v>
+        <v>20.38664401773116</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>31.27519269499013</v>
+        <v>15.77133968708439</v>
       </c>
       <c r="F15">
-        <v>41.60894737079983</v>
+        <v>35.18378803836173</v>
       </c>
       <c r="G15">
-        <v>2.031081921525085</v>
+        <v>30.37519995228293</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.995512223014861</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.040642605098509</v>
       </c>
       <c r="J15">
-        <v>3.665638607874107</v>
+        <v>9.447251981054389</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.26580642448201</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.18746798259509</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,45 +1155,51 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.23812406776353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.78830089617681</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.60757003870041</v>
+        <v>24.87480460857261</v>
       </c>
       <c r="C16">
-        <v>22.20135997200675</v>
+        <v>19.7634311794784</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>30.31079651090898</v>
+        <v>15.51324795009305</v>
       </c>
       <c r="F16">
-        <v>40.37514234653058</v>
+        <v>34.4668974932459</v>
       </c>
       <c r="G16">
-        <v>2.035692234824883</v>
+        <v>29.61555457746373</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.704335818374248</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.914550648544282</v>
       </c>
       <c r="J16">
-        <v>3.719645078313844</v>
+        <v>9.378505589748471</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.29313437643863</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.161194100637465</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,45 +1208,51 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.19608507738552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.8210248233763</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.96866564850396</v>
+        <v>24.48126312536974</v>
       </c>
       <c r="C17">
-        <v>21.75933993114816</v>
+        <v>19.54364701846205</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>29.70937078065266</v>
+        <v>16.40645067472033</v>
       </c>
       <c r="F17">
-        <v>39.61604642928642</v>
+        <v>35.21897799536405</v>
       </c>
       <c r="G17">
-        <v>2.038534384358418</v>
+        <v>29.73865975491564</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.973650181771987</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.84881713826724</v>
       </c>
       <c r="J17">
-        <v>3.753574503202838</v>
+        <v>9.452448233777398</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.46294579446298</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.160537037629307</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,45 +1261,51 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.18460095315409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.79851318553007</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.5957076715227</v>
+        <v>24.43823640665261</v>
       </c>
       <c r="C18">
-        <v>21.50143975971242</v>
+        <v>19.64104683544455</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>29.35983202288294</v>
+        <v>18.46024665325323</v>
       </c>
       <c r="F18">
-        <v>39.17864317578712</v>
+        <v>37.3410993156184</v>
       </c>
       <c r="G18">
-        <v>2.040174752432814</v>
+        <v>30.68551344922497</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.842482337891165</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.827397236814536</v>
       </c>
       <c r="J18">
-        <v>3.773372345984141</v>
+        <v>9.664771120208007</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.7921404719869</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.23827795188837</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,45 +1314,51 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.18302271546948</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.72384212407634</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.46848592321671</v>
+        <v>24.64773379998374</v>
       </c>
       <c r="C19">
-        <v>21.41348880450798</v>
+        <v>20.02105899111084</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>29.24086267251961</v>
+        <v>21.37150680250206</v>
       </c>
       <c r="F19">
-        <v>39.03041260100468</v>
+        <v>40.3499464368257</v>
       </c>
       <c r="G19">
-        <v>2.040731170935604</v>
+        <v>32.08907841764182</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.68665551160227</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.849926519758474</v>
       </c>
       <c r="J19">
-        <v>3.780123131714373</v>
+        <v>9.946929861872848</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.18048621652776</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.449387159672265</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,45 +1367,51 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.18332924891089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.62740378870488</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.03724403517361</v>
+        <v>25.60432507005528</v>
       </c>
       <c r="C20">
-        <v>21.80677236195597</v>
+        <v>21.0940825839754</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>29.77376746650645</v>
+        <v>26.28819034350687</v>
       </c>
       <c r="F20">
-        <v>39.69693593172184</v>
+        <v>45.65782202734241</v>
       </c>
       <c r="G20">
-        <v>2.038231260983299</v>
+        <v>34.86518100606072</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.157656785636679</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.987050967222576</v>
       </c>
       <c r="J20">
-        <v>3.749933186502533</v>
+        <v>10.4540919109112</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.80542495699276</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.985588252679848</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,45 +1420,51 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.18529785583552</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.44580076404251</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.88305144866683</v>
+        <v>27.21311731287598</v>
       </c>
       <c r="C21">
-        <v>23.08451851942932</v>
+        <v>22.42649612595605</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>31.52116648270709</v>
+        <v>28.05322461859807</v>
       </c>
       <c r="F21">
-        <v>41.92680928288009</v>
+        <v>48.35059750649547</v>
       </c>
       <c r="G21">
-        <v>2.029895460115829</v>
+        <v>36.8770480647941</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.550581969446899</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.240038833911918</v>
       </c>
       <c r="J21">
-        <v>3.651951510863235</v>
+        <v>10.73632133196051</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.98663359867905</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.168744196769796</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,45 +1473,51 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.25358070057667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.30874386322623</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.04153973200484</v>
+        <v>28.21668237812877</v>
       </c>
       <c r="C22">
-        <v>23.88737665828112</v>
+        <v>23.2140357036764</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>32.63139372482153</v>
+        <v>28.93955244917239</v>
       </c>
       <c r="F22">
-        <v>43.37700501722761</v>
+        <v>49.86680992025113</v>
       </c>
       <c r="G22">
-        <v>2.024485851605691</v>
+        <v>38.13389007481813</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.789550799439879</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.398845957117651</v>
       </c>
       <c r="J22">
-        <v>3.590678052947872</v>
+        <v>10.91824340834514</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.11718613589982</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.261257863028491</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,45 +1526,51 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.34768011883319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.22254102871475</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.4275648764679</v>
+        <v>27.70511998681837</v>
       </c>
       <c r="C23">
-        <v>23.46180343231365</v>
+        <v>22.77689201519481</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>32.04172644762959</v>
+        <v>28.45193218616277</v>
       </c>
       <c r="F23">
-        <v>42.60364937950025</v>
+        <v>49.08109969438792</v>
       </c>
       <c r="G23">
-        <v>2.027370165149278</v>
+        <v>37.53244083428078</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.663008641106679</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.312705280386164</v>
       </c>
       <c r="J23">
-        <v>3.623114507496189</v>
+        <v>10.83542396156716</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.07717286923791</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.214896925697047</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,45 +1579,51 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.29271896631369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.2626248542322</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.00625733421441</v>
+        <v>25.64493378885895</v>
       </c>
       <c r="C24">
-        <v>21.78533992833938</v>
+        <v>21.09004305805435</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>29.74466547405828</v>
+        <v>26.56545053089247</v>
       </c>
       <c r="F24">
-        <v>39.66036886413538</v>
+        <v>45.9854377823134</v>
       </c>
       <c r="G24">
-        <v>2.03836828306633</v>
+        <v>35.10648960695116</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.174402057877754</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.984946003036484</v>
       </c>
       <c r="J24">
-        <v>3.751578520789901</v>
+        <v>10.5053079992969</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.89516246637166</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.031355429091946</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,45 +1632,51 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.18496719142673</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.42923561254733</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.18462363450135</v>
+        <v>23.225335334311</v>
       </c>
       <c r="C25">
-        <v>19.8368912315135</v>
+        <v>19.13438074294174</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>27.12893643571275</v>
+        <v>24.38594321408581</v>
       </c>
       <c r="F25">
-        <v>36.45627484204452</v>
+        <v>42.46130170841182</v>
       </c>
       <c r="G25">
-        <v>2.050452761135197</v>
+        <v>32.40815478356108</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.627962413897038</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.62297697438834</v>
       </c>
       <c r="J25">
-        <v>3.900866101891359</v>
+        <v>10.1644623728896</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.73682816756236</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.826051750039184</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.25758451522928</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.61953095292555</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.33032503704562</v>
+        <v>20.84670721142093</v>
       </c>
       <c r="C2">
-        <v>17.51573641557463</v>
+        <v>17.8910611218864</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22.60574780482797</v>
+        <v>22.98218152480754</v>
       </c>
       <c r="F2">
-        <v>39.77094111295357</v>
+        <v>39.32514609064649</v>
       </c>
       <c r="G2">
-        <v>30.55388551618218</v>
+        <v>28.53285494854742</v>
       </c>
       <c r="H2">
-        <v>2.20902726858859</v>
+        <v>2.178988684951144</v>
       </c>
       <c r="I2">
-        <v>3.344817348839081</v>
+        <v>3.306253208276773</v>
       </c>
       <c r="J2">
-        <v>9.96461360106732</v>
+        <v>10.25990288250379</v>
       </c>
       <c r="K2">
-        <v>13.72552544979902</v>
+        <v>13.14319538344649</v>
       </c>
       <c r="L2">
-        <v>5.675877938611627</v>
+        <v>11.95749812088669</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.628294639075266</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.623823716628886</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.75705133189446</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.8578597986345</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.90475467645363</v>
+        <v>19.49953138138597</v>
       </c>
       <c r="C3">
-        <v>16.37449758327256</v>
+        <v>16.68355257624695</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.3514551198185</v>
+        <v>21.68679571854038</v>
       </c>
       <c r="F3">
-        <v>37.82792946731507</v>
+        <v>37.44818985616725</v>
       </c>
       <c r="G3">
-        <v>29.1568334532253</v>
+        <v>27.32317776115381</v>
       </c>
       <c r="H3">
-        <v>1.91202305390368</v>
+        <v>1.892450001355652</v>
       </c>
       <c r="I3">
-        <v>3.151724656457474</v>
+        <v>3.140183546108108</v>
       </c>
       <c r="J3">
-        <v>9.815402457518042</v>
+        <v>10.12064992144784</v>
       </c>
       <c r="K3">
-        <v>13.69004162013137</v>
+        <v>13.17438052226472</v>
       </c>
       <c r="L3">
-        <v>5.565678089996324</v>
+        <v>12.09373240221839</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.502626107651711</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.520220875122287</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.86240397344088</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>11.92365514637592</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.9737781754683</v>
+        <v>18.61922893143364</v>
       </c>
       <c r="C4">
-        <v>15.6372621112499</v>
+        <v>15.9025442653936</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.54557352403894</v>
+        <v>20.85489805838327</v>
       </c>
       <c r="F4">
-        <v>36.59246621478099</v>
+        <v>36.25433800384836</v>
       </c>
       <c r="G4">
-        <v>28.28094467408628</v>
+        <v>26.5671271779892</v>
       </c>
       <c r="H4">
-        <v>1.72340816280152</v>
+        <v>1.710361864783085</v>
       </c>
       <c r="I4">
-        <v>3.030080721223612</v>
+        <v>3.035634544536993</v>
       </c>
       <c r="J4">
-        <v>9.726888815456284</v>
+        <v>10.03494487052277</v>
       </c>
       <c r="K4">
-        <v>13.67412553837882</v>
+        <v>13.19715858209879</v>
       </c>
       <c r="L4">
-        <v>5.495783913619882</v>
+        <v>12.17735068698244</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.451138922864605</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.454334148664501</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.9297642144754</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>11.96739091027691</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.5731888033113</v>
+        <v>18.24020950289029</v>
       </c>
       <c r="C5">
-        <v>15.33468974291829</v>
+        <v>15.58122930699458</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.21442827783537</v>
+        <v>20.51282339080753</v>
       </c>
       <c r="F5">
-        <v>36.07228682144517</v>
+        <v>35.75158980559057</v>
       </c>
       <c r="G5">
-        <v>27.8974724293491</v>
+        <v>26.23420965077617</v>
       </c>
       <c r="H5">
-        <v>1.644751175995577</v>
+        <v>1.63441008660698</v>
       </c>
       <c r="I5">
-        <v>2.979984277216408</v>
+        <v>2.992913505622348</v>
       </c>
       <c r="J5">
-        <v>9.687475752918662</v>
+        <v>9.996134748218239</v>
       </c>
       <c r="K5">
-        <v>13.66099904430334</v>
+        <v>13.1999037495574</v>
       </c>
       <c r="L5">
-        <v>5.465912650887767</v>
+        <v>12.20519730085546</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.431692566955681</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.426130088158743</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.95885725219864</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>11.98717556693571</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.49709920874317</v>
+        <v>18.16806533598216</v>
       </c>
       <c r="C6">
-        <v>15.29252784071823</v>
+        <v>15.53575089750506</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.16638153598763</v>
+        <v>20.46275315256519</v>
       </c>
       <c r="F6">
-        <v>35.97732756769039</v>
+        <v>35.65982335685737</v>
       </c>
       <c r="G6">
-        <v>27.80613163742569</v>
+        <v>26.15210892031967</v>
       </c>
       <c r="H6">
-        <v>1.631359888837215</v>
+        <v>1.621490742971518</v>
       </c>
       <c r="I6">
-        <v>2.972132282039651</v>
+        <v>2.98667209754955</v>
       </c>
       <c r="J6">
-        <v>9.675939557876017</v>
+        <v>9.984988689324915</v>
       </c>
       <c r="K6">
-        <v>13.64907879154447</v>
+        <v>13.19139084557847</v>
       </c>
       <c r="L6">
-        <v>5.459908427839029</v>
+        <v>12.20222575866407</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.422761130083283</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.420458698357594</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.96493941543486</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>11.99191730671262</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94519279471591</v>
+        <v>18.58165735361077</v>
       </c>
       <c r="C7">
-        <v>15.65624325504041</v>
+        <v>15.90321831267068</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.56112392251621</v>
+        <v>20.88306253285752</v>
       </c>
       <c r="F7">
-        <v>36.56406995069355</v>
+        <v>36.2126243515797</v>
       </c>
       <c r="G7">
-        <v>28.20202975202073</v>
+        <v>26.57278218913141</v>
       </c>
       <c r="H7">
-        <v>1.721726849504214</v>
+        <v>1.708287852171336</v>
       </c>
       <c r="I7">
-        <v>3.030480258598044</v>
+        <v>3.036316327860355</v>
       </c>
       <c r="J7">
-        <v>9.71265897968915</v>
+        <v>9.96694529922631</v>
       </c>
       <c r="K7">
-        <v>13.64713052762801</v>
+        <v>13.16185543725009</v>
       </c>
       <c r="L7">
-        <v>5.492647216433952</v>
+        <v>12.14847605929481</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.426101850351073</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.449627088376166</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.93356063569108</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>11.9735027951532</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.8219253534811</v>
+        <v>20.33483218463007</v>
       </c>
       <c r="C8">
-        <v>17.15791174355909</v>
+        <v>17.45647177505127</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.20541492820275</v>
+        <v>22.60852374123846</v>
       </c>
       <c r="F8">
-        <v>39.08340280130835</v>
+        <v>38.61635123302697</v>
       </c>
       <c r="G8">
-        <v>29.98386492500277</v>
+        <v>28.28725911966024</v>
       </c>
       <c r="H8">
-        <v>2.107103553712906</v>
+        <v>2.07921447587833</v>
       </c>
       <c r="I8">
-        <v>3.279786378343711</v>
+        <v>3.24918854692572</v>
       </c>
       <c r="J8">
-        <v>9.894734131089383</v>
+        <v>10.01778225484311</v>
       </c>
       <c r="K8">
-        <v>13.67669897466554</v>
+        <v>13.08559578195335</v>
       </c>
       <c r="L8">
-        <v>5.634823514574395</v>
+        <v>11.95221499210674</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.527114258579207</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.579629391358649</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.79776843437725</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>11.8924944086813</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.10098304731482</v>
+        <v>23.42679624042918</v>
       </c>
       <c r="C9">
-        <v>19.77799981376321</v>
+        <v>20.21863542101868</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>25.10952681823195</v>
+        <v>25.61616620254458</v>
       </c>
       <c r="F9">
-        <v>43.70524639737869</v>
+        <v>43.07212300156444</v>
       </c>
       <c r="G9">
-        <v>33.44092557097558</v>
+        <v>31.34671614694524</v>
       </c>
       <c r="H9">
-        <v>2.815780373049476</v>
+        <v>2.761858929684263</v>
       </c>
       <c r="I9">
-        <v>3.744451709247993</v>
+        <v>3.647480348816599</v>
       </c>
       <c r="J9">
-        <v>10.30047720895067</v>
+        <v>10.33641824576965</v>
       </c>
       <c r="K9">
-        <v>13.83271553148832</v>
+        <v>13.05063446532198</v>
       </c>
       <c r="L9">
-        <v>5.900765316906134</v>
+        <v>11.63216739140659</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.986643896546981</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.827514337159498</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.54636520734117</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.74617175801125</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.19501118708073</v>
+        <v>25.35543848393416</v>
       </c>
       <c r="C10">
-        <v>21.47680898606139</v>
+        <v>21.92397572869784</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.65488368486317</v>
+        <v>27.28512554527674</v>
       </c>
       <c r="F10">
-        <v>46.43447378409574</v>
+        <v>45.62548974362095</v>
       </c>
       <c r="G10">
-        <v>35.63091550966099</v>
+        <v>33.67963667657815</v>
       </c>
       <c r="H10">
-        <v>3.282378622141306</v>
+        <v>3.207864880949693</v>
       </c>
       <c r="I10">
-        <v>4.067244899623783</v>
+        <v>3.921238959667571</v>
       </c>
       <c r="J10">
-        <v>10.56628394484927</v>
+        <v>10.23679976537547</v>
       </c>
       <c r="K10">
-        <v>13.91294296988268</v>
+        <v>12.9309932906216</v>
       </c>
       <c r="L10">
-        <v>6.028746633130321</v>
+        <v>11.31833962214647</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.328230051503899</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.936815235206042</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.39145850401726</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.68795839042571</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.69157118407251</v>
+        <v>25.75198763648469</v>
       </c>
       <c r="C11">
-        <v>21.70736651135351</v>
+        <v>21.98018524617067</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.80795087486248</v>
+        <v>24.52480810957099</v>
       </c>
       <c r="F11">
-        <v>43.9528068807543</v>
+        <v>43.0102420460496</v>
       </c>
       <c r="G11">
-        <v>34.73870123063765</v>
+        <v>33.66722243811145</v>
       </c>
       <c r="H11">
-        <v>3.844795887771755</v>
+        <v>3.774935816857314</v>
       </c>
       <c r="I11">
-        <v>4.160666919408196</v>
+        <v>3.996266530484763</v>
       </c>
       <c r="J11">
-        <v>10.31140933581411</v>
+        <v>9.399497710043839</v>
       </c>
       <c r="K11">
-        <v>13.41923377565216</v>
+        <v>12.3469151658668</v>
       </c>
       <c r="L11">
-        <v>5.65928567668489</v>
+        <v>10.8346135253321</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.013447200707605</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.584326020587968</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.45873905267185</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.83359069247305</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.71162806482698</v>
+        <v>25.74762677129324</v>
       </c>
       <c r="C12">
-        <v>21.52726285359418</v>
+        <v>21.69908526909043</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.09086436146293</v>
+        <v>21.80569140877836</v>
       </c>
       <c r="F12">
-        <v>41.28533612193419</v>
+        <v>40.30772220514305</v>
       </c>
       <c r="G12">
-        <v>33.60071172961498</v>
+        <v>33.00570168450035</v>
       </c>
       <c r="H12">
-        <v>4.81911621635276</v>
+        <v>4.763931407574124</v>
       </c>
       <c r="I12">
-        <v>4.173334478423478</v>
+        <v>4.00379440019297</v>
       </c>
       <c r="J12">
-        <v>10.05240109747176</v>
+        <v>8.920072409374834</v>
       </c>
       <c r="K12">
-        <v>13.01811416305975</v>
+        <v>11.95092157586649</v>
       </c>
       <c r="L12">
-        <v>5.412858633081381</v>
+        <v>10.54881976145619</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.727034204365135</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.369237674226687</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.54936820775712</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.95918704077154</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.34101289433404</v>
+        <v>25.42917666970565</v>
       </c>
       <c r="C13">
-        <v>21.04203357691435</v>
+        <v>21.19263175837327</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.28257911419701</v>
+        <v>18.89973894044683</v>
       </c>
       <c r="F13">
-        <v>38.21874831698759</v>
+        <v>37.30843602062498</v>
       </c>
       <c r="G13">
-        <v>32.07476091011644</v>
+        <v>31.5153982640794</v>
       </c>
       <c r="H13">
-        <v>5.950169275983868</v>
+        <v>5.909517050677942</v>
       </c>
       <c r="I13">
-        <v>4.126388284859949</v>
+        <v>3.964423855144784</v>
       </c>
       <c r="J13">
-        <v>9.751228678792128</v>
+        <v>8.75767647675135</v>
       </c>
       <c r="K13">
-        <v>12.62162021082244</v>
+        <v>11.66062328133104</v>
       </c>
       <c r="L13">
-        <v>5.251927343291905</v>
+        <v>10.37658084002734</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.434104141691974</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.247066500299618</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.66544993304475</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.06843071360634</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.89470574960312</v>
+        <v>25.05412101263201</v>
       </c>
       <c r="C14">
-        <v>20.56360048838032</v>
+        <v>20.73340508964267</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.28131794196365</v>
+        <v>16.78528923515649</v>
       </c>
       <c r="F14">
-        <v>35.85446514318018</v>
+        <v>35.0369020703498</v>
       </c>
       <c r="G14">
-        <v>30.79520215207622</v>
+        <v>30.06849153487764</v>
       </c>
       <c r="H14">
-        <v>6.801974387826891</v>
+        <v>6.770036487547522</v>
       </c>
       <c r="I14">
-        <v>4.067417620233608</v>
+        <v>3.916739249972708</v>
       </c>
       <c r="J14">
-        <v>9.517061572990398</v>
+        <v>8.769739790799619</v>
       </c>
       <c r="K14">
-        <v>12.34090769167362</v>
+        <v>11.4969189263121</v>
       </c>
       <c r="L14">
-        <v>5.195565949016094</v>
+        <v>10.29837369082551</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.220728200406815</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.216103871465695</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.75917590284233</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.13781836088397</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.69349147127394</v>
+        <v>24.88574671791338</v>
       </c>
       <c r="C15">
-        <v>20.38664401773116</v>
+        <v>20.5755413040871</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.77133968708439</v>
+        <v>16.23244267185552</v>
       </c>
       <c r="F15">
-        <v>35.18378803836173</v>
+        <v>34.40853416344015</v>
       </c>
       <c r="G15">
-        <v>30.37519995228293</v>
+        <v>29.5262067760126</v>
       </c>
       <c r="H15">
-        <v>6.995512223014861</v>
+        <v>6.965953162769768</v>
       </c>
       <c r="I15">
-        <v>4.040642605098509</v>
+        <v>3.895880930332884</v>
       </c>
       <c r="J15">
-        <v>9.447251981054389</v>
+        <v>8.823957269749368</v>
       </c>
       <c r="K15">
-        <v>12.26580642448201</v>
+        <v>11.4690814725379</v>
       </c>
       <c r="L15">
-        <v>5.18746798259509</v>
+        <v>10.29452397365418</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.159864261457928</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.213202078001088</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.78830089617681</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.15278435346841</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.87480460857261</v>
+        <v>24.198166437457</v>
       </c>
       <c r="C16">
-        <v>19.7634311794784</v>
+        <v>20.07075774812619</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.51324795009305</v>
+        <v>15.86187482017892</v>
       </c>
       <c r="F16">
-        <v>34.4668974932459</v>
+        <v>33.8555853556208</v>
       </c>
       <c r="G16">
-        <v>29.61555457746373</v>
+        <v>28.09625098937811</v>
       </c>
       <c r="H16">
-        <v>6.704335818374248</v>
+        <v>6.679813462829792</v>
       </c>
       <c r="I16">
-        <v>3.914550648544282</v>
+        <v>3.795251590113772</v>
       </c>
       <c r="J16">
-        <v>9.378505589748471</v>
+        <v>9.28992834004762</v>
       </c>
       <c r="K16">
-        <v>12.29313437643863</v>
+        <v>11.64562085827046</v>
       </c>
       <c r="L16">
-        <v>5.161194100637465</v>
+        <v>10.48042867415889</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.137478225237652</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.182201610756902</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.8210248233763</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.11418299136147</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.48126312536974</v>
+        <v>23.85498906437083</v>
       </c>
       <c r="C17">
-        <v>19.54364701846205</v>
+        <v>19.91194143305962</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.40645067472033</v>
+        <v>16.7396044747865</v>
       </c>
       <c r="F17">
-        <v>35.21897799536405</v>
+        <v>34.66673881696429</v>
       </c>
       <c r="G17">
-        <v>29.73865975491564</v>
+        <v>27.89923684197152</v>
       </c>
       <c r="H17">
-        <v>5.973650181771987</v>
+        <v>5.949167590961323</v>
       </c>
       <c r="I17">
-        <v>3.84881713826724</v>
+        <v>3.742255754675027</v>
       </c>
       <c r="J17">
-        <v>9.452448233777398</v>
+        <v>9.582453925174402</v>
       </c>
       <c r="K17">
-        <v>12.46294579446298</v>
+        <v>11.85537396542851</v>
       </c>
       <c r="L17">
-        <v>5.160537037629307</v>
+        <v>10.66324307152084</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.221036129957232</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.169521095969483</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.79851318553007</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.05708454204698</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.43823640665261</v>
+        <v>23.81327711563144</v>
       </c>
       <c r="C18">
-        <v>19.64104683544455</v>
+        <v>20.05606639052678</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.46024665325323</v>
+        <v>18.82949101420669</v>
       </c>
       <c r="F18">
-        <v>37.3410993156184</v>
+        <v>36.78839797448669</v>
       </c>
       <c r="G18">
-        <v>30.68551344922497</v>
+        <v>28.6446243823553</v>
       </c>
       <c r="H18">
-        <v>4.842482337891165</v>
+        <v>4.812686457092564</v>
       </c>
       <c r="I18">
-        <v>3.827397236814536</v>
+        <v>3.723851750647084</v>
       </c>
       <c r="J18">
-        <v>9.664771120208007</v>
+        <v>9.86287448804598</v>
       </c>
       <c r="K18">
-        <v>12.7921404719869</v>
+        <v>12.15684644382766</v>
       </c>
       <c r="L18">
-        <v>5.23827795188837</v>
+        <v>10.89223111414137</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.432976015219403</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.227524469500609</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.72384212407634</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.9661891406366</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.64773379998374</v>
+        <v>23.99297132205656</v>
       </c>
       <c r="C19">
-        <v>20.02105899111084</v>
+        <v>20.47871425753444</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.37150680250206</v>
+        <v>21.79949574327652</v>
       </c>
       <c r="F19">
-        <v>40.3499464368257</v>
+        <v>39.76125134142411</v>
       </c>
       <c r="G19">
-        <v>32.08907841764182</v>
+        <v>29.8992210405742</v>
       </c>
       <c r="H19">
-        <v>3.68665551160227</v>
+        <v>3.644213107993023</v>
       </c>
       <c r="I19">
-        <v>3.849926519758474</v>
+        <v>3.74396725099907</v>
       </c>
       <c r="J19">
-        <v>9.946929861872848</v>
+        <v>10.13241703294685</v>
       </c>
       <c r="K19">
-        <v>13.18048621652776</v>
+        <v>12.47920834114156</v>
       </c>
       <c r="L19">
-        <v>5.449387159672265</v>
+        <v>11.12169193727903</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.701344245669449</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.413342416765635</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.62740378870488</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.86584256957679</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.60432507005528</v>
+        <v>24.83745635678524</v>
       </c>
       <c r="C20">
-        <v>21.0940825839754</v>
+        <v>21.58685363360735</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>26.28819034350687</v>
+        <v>26.84735394459989</v>
       </c>
       <c r="F20">
-        <v>45.65782202734241</v>
+        <v>44.93815436932935</v>
       </c>
       <c r="G20">
-        <v>34.86518100606072</v>
+        <v>32.64159840444135</v>
       </c>
       <c r="H20">
-        <v>3.157656785636679</v>
+        <v>3.0901571398621</v>
       </c>
       <c r="I20">
-        <v>3.987050967222576</v>
+        <v>3.859496560254609</v>
       </c>
       <c r="J20">
-        <v>10.4540919109112</v>
+        <v>10.40584053499379</v>
       </c>
       <c r="K20">
-        <v>13.80542495699276</v>
+        <v>12.92280302011028</v>
       </c>
       <c r="L20">
-        <v>5.985588252679848</v>
+        <v>11.37496331133797</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.199295317871739</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.904767743286107</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.44580076404251</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.70987306724596</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.21311731287598</v>
+        <v>26.17298018154338</v>
       </c>
       <c r="C21">
-        <v>22.42649612595605</v>
+        <v>22.6846047874393</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>28.05322461859807</v>
+        <v>28.90994571642075</v>
       </c>
       <c r="F21">
-        <v>48.35059750649547</v>
+        <v>47.27590367728699</v>
       </c>
       <c r="G21">
-        <v>36.8770480647941</v>
+        <v>35.9778246448026</v>
       </c>
       <c r="H21">
-        <v>3.550581969446899</v>
+        <v>3.459266785701613</v>
       </c>
       <c r="I21">
-        <v>4.240038833911918</v>
+        <v>4.06202544325174</v>
       </c>
       <c r="J21">
-        <v>10.73632133196051</v>
+        <v>9.476525191347065</v>
       </c>
       <c r="K21">
-        <v>13.98663359867905</v>
+        <v>12.73123914131077</v>
       </c>
       <c r="L21">
-        <v>6.168744196769796</v>
+        <v>11.07165665951611</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.392192746892546</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.038290330085335</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.30874386322623</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.69805646501133</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.21668237812877</v>
+        <v>26.99730344841832</v>
       </c>
       <c r="C22">
-        <v>23.2140357036764</v>
+        <v>23.30728335006907</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.93955244917239</v>
+        <v>29.99454154271489</v>
       </c>
       <c r="F22">
-        <v>49.86680992025113</v>
+        <v>48.55505050645908</v>
       </c>
       <c r="G22">
-        <v>38.13389007481813</v>
+        <v>38.16228361144991</v>
       </c>
       <c r="H22">
-        <v>3.789550799439879</v>
+        <v>3.682893200476506</v>
       </c>
       <c r="I22">
-        <v>4.398845957117651</v>
+        <v>4.187273344107638</v>
       </c>
       <c r="J22">
-        <v>10.91824340834514</v>
+        <v>8.834067357855236</v>
       </c>
       <c r="K22">
-        <v>14.11718613589982</v>
+        <v>12.60092232536828</v>
       </c>
       <c r="L22">
-        <v>6.261257863028491</v>
+        <v>10.87163960120745</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.522950839910742</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.09781933081028</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.22254102871475</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.70127294436161</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.70511998681837</v>
+        <v>26.59944859663398</v>
       </c>
       <c r="C23">
-        <v>22.77689201519481</v>
+        <v>22.99153448615179</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>28.45193218616277</v>
+        <v>29.37509115111414</v>
       </c>
       <c r="F23">
-        <v>49.08109969438792</v>
+        <v>47.92384927078805</v>
       </c>
       <c r="G23">
-        <v>37.53244083428078</v>
+        <v>36.89458802380483</v>
       </c>
       <c r="H23">
-        <v>3.663008641106679</v>
+        <v>3.56532306721797</v>
       </c>
       <c r="I23">
-        <v>4.312705280386164</v>
+        <v>4.119074769608592</v>
       </c>
       <c r="J23">
-        <v>10.83542396156716</v>
+        <v>9.30690414972949</v>
       </c>
       <c r="K23">
-        <v>14.07717286923791</v>
+        <v>12.72454510728245</v>
       </c>
       <c r="L23">
-        <v>6.214896925697047</v>
+        <v>11.01186687866318</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.500888438198853</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.072916956672465</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.2626248542322</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.68476023758634</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.64493378885895</v>
+        <v>24.87558017685431</v>
       </c>
       <c r="C24">
-        <v>21.09004305805435</v>
+        <v>21.58917773237807</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>26.56545053089247</v>
+        <v>27.1279913136684</v>
       </c>
       <c r="F24">
-        <v>45.9854377823134</v>
+        <v>45.26325908416647</v>
       </c>
       <c r="G24">
-        <v>35.10648960695116</v>
+        <v>32.85575517536381</v>
       </c>
       <c r="H24">
-        <v>3.174402057877754</v>
+        <v>3.106641990414894</v>
       </c>
       <c r="I24">
-        <v>3.984946003036484</v>
+        <v>3.855256010999822</v>
       </c>
       <c r="J24">
-        <v>10.5053079992969</v>
+        <v>10.46103548959271</v>
       </c>
       <c r="K24">
-        <v>13.89516246637166</v>
+        <v>13.00305854206939</v>
       </c>
       <c r="L24">
-        <v>6.031355429091946</v>
+        <v>11.4317303714049</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.264618984110392</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.947918868791375</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.42923561254733</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.69016813057623</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.225335334311</v>
+        <v>22.61318096446327</v>
       </c>
       <c r="C25">
-        <v>19.13438074294174</v>
+        <v>19.55949372156051</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24.38594321408581</v>
+        <v>24.84847297568474</v>
       </c>
       <c r="F25">
-        <v>42.46130170841182</v>
+        <v>41.89105871883164</v>
       </c>
       <c r="G25">
-        <v>32.40815478356108</v>
+        <v>30.31739795138105</v>
       </c>
       <c r="H25">
-        <v>2.627962413897038</v>
+        <v>2.581753775261387</v>
       </c>
       <c r="I25">
-        <v>3.62297697438834</v>
+        <v>3.546387315451988</v>
       </c>
       <c r="J25">
-        <v>10.1644623728896</v>
+        <v>10.30311844035086</v>
       </c>
       <c r="K25">
-        <v>13.73682816756236</v>
+        <v>13.02812540046546</v>
       </c>
       <c r="L25">
-        <v>5.826051750039184</v>
+        <v>11.69909780259628</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.818153722105096</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.760355632585207</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.61953095292555</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.78829208826035</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
